--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\RPA_CreditCardApproval\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\Final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A44D8-5CBD-47B9-BADC-DA615FB5D280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8759B7E4-B85D-4355-8F18-C09936D962A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </x:bookViews>
@@ -115,6 +115,9 @@
     <x:t>113/1 Lý Thường Kiệt, Quận 2, Việt Nam</x:t>
   </x:si>
   <x:si>
+    <x:t>PASS</x:t>
+  </x:si>
+  <x:si>
     <x:t>APP0002</x:t>
   </x:si>
   <x:si>
@@ -160,6 +163,12 @@
     <x:t>138 Tran Hung Dao, Hoan Kiem, Da Nang, Viet Nam</x:t>
   </x:si>
   <x:si>
+    <x:t>FAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REJECT</x:t>
+  </x:si>
+  <x:si>
     <x:t>APP0004</x:t>
   </x:si>
   <x:si>
@@ -368,9 +377,6 @@
   </x:si>
   <x:si>
     <x:t>184 Tran Hung Dao, Dong Da, Da Nang, Viet Nam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>True</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -910,8 +916,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:AA17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="Q4" sqref="Q4"/>
+    <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <x:selection activeCell="K6" sqref="K6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,10 +1031,14 @@
       <x:c r="K2" s="9" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="L2" s="1"/>
+      <x:c r="L2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M2" s="1"/>
       <x:c r="N2" s="1"/>
-      <x:c r="O2" s="1"/>
+      <x:c r="O2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P2" s="1"/>
       <x:c r="Q2" s="1"/>
       <x:c r="R2" s="1"/>
@@ -1044,43 +1054,45 @@
     </x:row>
     <x:row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="L3" s="1"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M3" s="1"/>
       <x:c r="N3" s="1"/>
       <x:c r="O3" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P3" s="1"/>
       <x:c r="Q3" s="1"/>
@@ -1097,10 +1109,10 @@
     </x:row>
     <x:row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C4" s="7">
         <x:v>89854219200</x:v>
@@ -1109,13 +1121,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="10">
         <x:v>30502</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
         <x:v>23</x:v>
@@ -1124,17 +1136,23 @@
         <x:v>836426617</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K4" s="9" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="L4" s="1"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M4" s="1"/>
       <x:c r="N4" s="1"/>
-      <x:c r="O4" s="1"/>
+      <x:c r="O4" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="P4" s="1"/>
-      <x:c r="Q4" s="1"/>
+      <x:c r="Q4" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="R4" s="1"/>
       <x:c r="S4" s="1"/>
       <x:c r="T4" s="1"/>
@@ -1148,10 +1166,10 @@
     </x:row>
     <x:row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C5" s="7">
         <x:v>39667525772</x:v>
@@ -1160,13 +1178,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F5" s="10">
         <x:v>28075</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
         <x:v>23</x:v>
@@ -1175,17 +1193,23 @@
         <x:v>878061855</x:v>
       </x:c>
       <x:c r="J5" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K5" s="9" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L5" s="1"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M5" s="1"/>
       <x:c r="N5" s="1"/>
-      <x:c r="O5" s="1"/>
+      <x:c r="O5" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="P5" s="1"/>
-      <x:c r="Q5" s="1"/>
+      <x:c r="Q5" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="R5" s="1"/>
       <x:c r="S5" s="1"/>
       <x:c r="T5" s="1"/>
@@ -1199,10 +1223,10 @@
     </x:row>
     <x:row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C6" s="7">
         <x:v>34153706524</x:v>
@@ -1211,13 +1235,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
         <x:v>23</x:v>
@@ -1226,10 +1250,10 @@
         <x:v>761209301</x:v>
       </x:c>
       <x:c r="J6" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K6" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L6" s="1"/>
       <x:c r="M6" s="1"/>
@@ -1250,10 +1274,10 @@
     </x:row>
     <x:row r="7" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C7" s="7">
         <x:v>15446733779</x:v>
@@ -1262,13 +1286,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>23</x:v>
@@ -1277,10 +1301,10 @@
         <x:v>929771395</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L7" s="1"/>
       <x:c r="M7" s="1"/>
@@ -1301,10 +1325,10 @@
     </x:row>
     <x:row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C8" s="7">
         <x:v>40261367986</x:v>
@@ -1313,13 +1337,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F8" s="10">
         <x:v>33763</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
         <x:v>23</x:v>
@@ -1328,10 +1352,10 @@
         <x:v>787466707</x:v>
       </x:c>
       <x:c r="J8" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K8" s="9" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L8" s="1"/>
       <x:c r="M8" s="1"/>
@@ -1350,39 +1374,39 @@
       <x:c r="Z8" s="1"/>
       <x:c r="AA8" s="2"/>
     </x:row>
-    <x:row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J9" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K9" s="9" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L9" s="1"/>
       <x:c r="M9" s="1"/>
@@ -1403,10 +1427,10 @@
     </x:row>
     <x:row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>12646406653</x:v>
@@ -1415,13 +1439,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>23</x:v>
@@ -1430,10 +1454,10 @@
         <x:v>847834130</x:v>
       </x:c>
       <x:c r="J10" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K10" s="9" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L10" s="1"/>
       <x:c r="M10" s="1"/>
@@ -1454,10 +1478,10 @@
     </x:row>
     <x:row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C11" s="7">
         <x:v>64845344238</x:v>
@@ -1466,13 +1490,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>23</x:v>
@@ -1481,10 +1505,10 @@
         <x:v>779971788</x:v>
       </x:c>
       <x:c r="J11" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="K11" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L11" s="1"/>
       <x:c r="M11" s="1"/>
@@ -1505,10 +1529,10 @@
     </x:row>
     <x:row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:v>51345661305</x:v>
@@ -1517,13 +1541,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>23</x:v>
@@ -1532,10 +1556,10 @@
         <x:v>790676752</x:v>
       </x:c>
       <x:c r="J12" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L12" s="1"/>
       <x:c r="M12" s="1"/>
@@ -1556,10 +1580,10 @@
     </x:row>
     <x:row r="13" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A13" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C13" s="7">
         <x:v>37066501525</x:v>
@@ -1568,7 +1592,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F13" s="10">
         <x:v>36502</x:v>
@@ -1583,10 +1607,10 @@
         <x:v>986380163</x:v>
       </x:c>
       <x:c r="J13" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K13" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="L13" s="1"/>
       <x:c r="M13" s="1"/>
@@ -1607,10 +1631,10 @@
     </x:row>
     <x:row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C14" s="7">
         <x:v>27892219410</x:v>
@@ -1619,10 +1643,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>22</x:v>
@@ -1634,10 +1658,10 @@
         <x:v>890571743</x:v>
       </x:c>
       <x:c r="J14" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K14" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L14" s="1"/>
       <x:c r="M14" s="1"/>
@@ -1657,10 +1681,10 @@
     </x:row>
     <x:row r="15" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C15" s="7">
         <x:v>84738508014</x:v>
@@ -1669,13 +1693,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>23</x:v>
@@ -1684,10 +1708,10 @@
         <x:v>862070786</x:v>
       </x:c>
       <x:c r="J15" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="K15" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="L15" s="1"/>
       <x:c r="M15" s="1"/>
@@ -1707,10 +1731,10 @@
     </x:row>
     <x:row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C16" s="7">
         <x:v>8782117608</x:v>
@@ -1719,7 +1743,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F16" s="10">
         <x:v>35590</x:v>
@@ -1734,10 +1758,10 @@
         <x:v>828800934</x:v>
       </x:c>
       <x:c r="J16" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="K16" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="L16" s="1"/>
       <x:c r="M16" s="1"/>
@@ -1755,7 +1779,7 @@
       <x:c r="Y16" s="1"/>
       <x:c r="Z16" s="1"/>
     </x:row>
-    <x:row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="1"/>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>

--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -1,34 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\RPA_CreditCardApproval\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpa\finalproject\uipath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A44D8-5CBD-47B9-BADC-DA615FB5D280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDC4BA3-694A-43AD-A63E-BC498CA0B4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
+    <x:workbookView xWindow="1848" yWindow="1920" windowWidth="21192" windowHeight="10596" firstSheet="0" activeTab="0" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="191029"/>
+  <x:calcPr calcId="181029"/>
   <x:extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </x:ext>
   </x:extLst>
 </x:workbook>
@@ -94,6 +85,9 @@
     <x:t>CUST0001</x:t>
   </x:si>
   <x:si>
+    <x:t>033301007320</x:t>
+  </x:si>
+  <x:si>
     <x:t>n/a</x:t>
   </x:si>
   <x:si>
@@ -115,6 +109,9 @@
     <x:t>113/1 Lý Thường Kiệt, Quận 2, Việt Nam</x:t>
   </x:si>
   <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
     <x:t>APP0002</x:t>
   </x:si>
   <x:si>
@@ -370,7 +367,7 @@
     <x:t>184 Tran Hung Dao, Dong Da, Da Nang, Viet Nam</x:t>
   </x:si>
   <x:si>
-    <x:t>True</x:t>
+    <x:t>PASS</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -523,7 +520,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -543,6 +540,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -553,7 +553,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment wrapText="1"/>
@@ -587,6 +587,9 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="right" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -910,8 +913,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:AA17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="Q4" sqref="Q4"/>
+    <x:sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <x:selection activeCell="M2" sqref="M2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,8 +924,8 @@
     <x:col min="4" max="4" width="17.441406" style="0" customWidth="1"/>
     <x:col min="5" max="10" width="14.664062" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="62.554688" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="14.664062" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="20.441406" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="34.664062" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="36.441406" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="22.664062" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="26.777344" style="0" customWidth="1"/>
     <x:col min="16" max="21" width="22.21875" style="0" customWidth="1"/>
@@ -998,194 +1001,224 @@
       <x:c r="B2" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C2" s="7">
-        <x:v>33301007320</x:v>
+      <x:c r="C2" s="12" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G2" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H2" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I2" s="1">
         <x:v>985632617</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K2" s="9" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L2" s="1"/>
-      <x:c r="M2" s="1"/>
-      <x:c r="N2" s="1"/>
-      <x:c r="O2" s="1"/>
-      <x:c r="P2" s="1"/>
-      <x:c r="Q2" s="1"/>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R2" s="1"/>
       <x:c r="S2" s="1"/>
       <x:c r="T2" s="1"/>
-      <x:c r="U2" s="1"/>
-      <x:c r="V2" s="1"/>
-      <x:c r="W2" s="1"/>
-      <x:c r="X2" s="1"/>
-      <x:c r="Y2" s="1"/>
-      <x:c r="Z2" s="1"/>
-      <x:c r="AA2" s="12"/>
+      <x:c r="U2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C3" s="12" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="L3" s="1"/>
-      <x:c r="M3" s="1"/>
-      <x:c r="N3" s="1"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="O3" s="1" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="P3" s="1"/>
-      <x:c r="Q3" s="1"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P3" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q3" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R3" s="1"/>
       <x:c r="S3" s="1"/>
       <x:c r="T3" s="1"/>
-      <x:c r="U3" s="1"/>
-      <x:c r="V3" s="1"/>
-      <x:c r="W3" s="1"/>
-      <x:c r="X3" s="1"/>
-      <x:c r="Y3" s="1"/>
-      <x:c r="Z3" s="1"/>
-      <x:c r="AA3" s="2"/>
+      <x:c r="U3" s="2"/>
     </x:row>
     <x:row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C4" s="7">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C4" s="12">
         <x:v>89854219200</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F4" s="10">
         <x:v>30502</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="1">
         <x:v>836426617</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K4" s="9" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="L4" s="1"/>
-      <x:c r="M4" s="1"/>
-      <x:c r="N4" s="1"/>
-      <x:c r="O4" s="1"/>
-      <x:c r="P4" s="1"/>
-      <x:c r="Q4" s="1"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R4" s="1"/>
       <x:c r="S4" s="1"/>
       <x:c r="T4" s="1"/>
       <x:c r="U4" s="1"/>
       <x:c r="V4" s="1"/>
-      <x:c r="W4" s="1"/>
-      <x:c r="X4" s="1"/>
-      <x:c r="Y4" s="1"/>
-      <x:c r="Z4" s="1"/>
-      <x:c r="AA4" s="2"/>
+      <x:c r="W4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C5" s="7">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C5" s="12">
         <x:v>39667525772</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F5" s="10">
         <x:v>28075</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I5" s="1">
         <x:v>878061855</x:v>
       </x:c>
       <x:c r="J5" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K5" s="9" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L5" s="1"/>
-      <x:c r="M5" s="1"/>
-      <x:c r="N5" s="1"/>
-      <x:c r="O5" s="1"/>
-      <x:c r="P5" s="1"/>
-      <x:c r="Q5" s="1"/>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R5" s="1"/>
       <x:c r="S5" s="1"/>
       <x:c r="T5" s="1"/>
@@ -1199,44 +1232,56 @@
     </x:row>
     <x:row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C6" s="7">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C6" s="12">
         <x:v>34153706524</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I6" s="1">
         <x:v>761209301</x:v>
       </x:c>
       <x:c r="J6" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="K6" s="9" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="L6" s="1"/>
-      <x:c r="M6" s="1"/>
-      <x:c r="N6" s="1"/>
-      <x:c r="O6" s="1"/>
-      <x:c r="P6" s="1"/>
-      <x:c r="Q6" s="1"/>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R6" s="1"/>
       <x:c r="S6" s="1"/>
       <x:c r="T6" s="1"/>
@@ -1250,44 +1295,56 @@
     </x:row>
     <x:row r="7" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C7" s="7">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C7" s="12">
         <x:v>15446733779</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I7" s="1">
         <x:v>929771395</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="L7" s="1"/>
-      <x:c r="M7" s="1"/>
-      <x:c r="N7" s="1"/>
-      <x:c r="O7" s="1"/>
-      <x:c r="P7" s="1"/>
-      <x:c r="Q7" s="1"/>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R7" s="1"/>
       <x:c r="S7" s="1"/>
       <x:c r="T7" s="1"/>
@@ -1301,44 +1358,56 @@
     </x:row>
     <x:row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C8" s="7">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C8" s="12">
         <x:v>40261367986</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F8" s="10">
         <x:v>33763</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I8" s="1">
         <x:v>787466707</x:v>
       </x:c>
       <x:c r="J8" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K8" s="9" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="L8" s="1"/>
-      <x:c r="M8" s="1"/>
-      <x:c r="N8" s="1"/>
-      <x:c r="O8" s="1"/>
-      <x:c r="P8" s="1"/>
-      <x:c r="Q8" s="1"/>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L8" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M8" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N8" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O8" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P8" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q8" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R8" s="1"/>
       <x:c r="S8" s="1"/>
       <x:c r="T8" s="1"/>
@@ -1350,46 +1419,58 @@
       <x:c r="Z8" s="1"/>
       <x:c r="AA8" s="2"/>
     </x:row>
-    <x:row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C9" s="12" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I9" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J9" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K9" s="9" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="L9" s="1"/>
-      <x:c r="M9" s="1"/>
-      <x:c r="N9" s="1"/>
-      <x:c r="O9" s="1"/>
-      <x:c r="P9" s="1"/>
-      <x:c r="Q9" s="1"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L9" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M9" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N9" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O9" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P9" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q9" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R9" s="1"/>
       <x:c r="S9" s="1"/>
       <x:c r="T9" s="1"/>
@@ -1403,44 +1484,56 @@
     </x:row>
     <x:row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C10" s="7">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C10" s="12">
         <x:v>12646406653</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I10" s="1">
         <x:v>847834130</x:v>
       </x:c>
       <x:c r="J10" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K10" s="9" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="L10" s="1"/>
-      <x:c r="M10" s="1"/>
-      <x:c r="N10" s="1"/>
-      <x:c r="O10" s="1"/>
-      <x:c r="P10" s="1"/>
-      <x:c r="Q10" s="1"/>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L10" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M10" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N10" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O10" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P10" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q10" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R10" s="1"/>
       <x:c r="S10" s="1"/>
       <x:c r="T10" s="1"/>
@@ -1454,44 +1547,56 @@
     </x:row>
     <x:row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C11" s="7">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C11" s="12">
         <x:v>64845344238</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I11" s="1">
         <x:v>779971788</x:v>
       </x:c>
       <x:c r="J11" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="K11" s="9" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="L11" s="1"/>
-      <x:c r="M11" s="1"/>
-      <x:c r="N11" s="1"/>
-      <x:c r="O11" s="1"/>
-      <x:c r="P11" s="1"/>
-      <x:c r="Q11" s="1"/>
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="L11" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M11" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N11" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O11" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P11" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q11" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R11" s="1"/>
       <x:c r="S11" s="1"/>
       <x:c r="T11" s="1"/>
@@ -1505,44 +1610,56 @@
     </x:row>
     <x:row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C12" s="7">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C12" s="12">
         <x:v>51345661305</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I12" s="1">
         <x:v>790676752</x:v>
       </x:c>
       <x:c r="J12" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="L12" s="1"/>
-      <x:c r="M12" s="1"/>
-      <x:c r="N12" s="1"/>
-      <x:c r="O12" s="1"/>
-      <x:c r="P12" s="1"/>
-      <x:c r="Q12" s="1"/>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="L12" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M12" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N12" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O12" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P12" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q12" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R12" s="1"/>
       <x:c r="S12" s="1"/>
       <x:c r="T12" s="1"/>
@@ -1556,44 +1673,56 @@
     </x:row>
     <x:row r="13" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A13" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C13" s="7">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C13" s="12">
         <x:v>37066501525</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F13" s="10">
         <x:v>36502</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I13" s="1">
         <x:v>986380163</x:v>
       </x:c>
       <x:c r="J13" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K13" s="9" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="L13" s="1"/>
-      <x:c r="M13" s="1"/>
-      <x:c r="N13" s="1"/>
-      <x:c r="O13" s="1"/>
-      <x:c r="P13" s="1"/>
-      <x:c r="Q13" s="1"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="L13" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M13" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N13" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O13" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P13" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q13" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R13" s="1"/>
       <x:c r="S13" s="1"/>
       <x:c r="T13" s="1"/>
@@ -1607,44 +1736,56 @@
     </x:row>
     <x:row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C14" s="7">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C14" s="12">
         <x:v>27892219410</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I14" s="1">
         <x:v>890571743</x:v>
       </x:c>
       <x:c r="J14" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="K14" s="9" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="L14" s="1"/>
-      <x:c r="M14" s="1"/>
-      <x:c r="N14" s="1"/>
-      <x:c r="O14" s="1"/>
-      <x:c r="P14" s="1"/>
-      <x:c r="Q14" s="1"/>
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="L14" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M14" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N14" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O14" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P14" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q14" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R14" s="1"/>
       <x:c r="S14" s="1"/>
       <x:c r="T14" s="1"/>
@@ -1657,44 +1798,56 @@
     </x:row>
     <x:row r="15" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C15" s="7">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C15" s="12">
         <x:v>84738508014</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I15" s="1">
         <x:v>862070786</x:v>
       </x:c>
       <x:c r="J15" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="K15" s="9" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="L15" s="1"/>
-      <x:c r="M15" s="1"/>
-      <x:c r="N15" s="1"/>
-      <x:c r="O15" s="1"/>
-      <x:c r="P15" s="1"/>
-      <x:c r="Q15" s="1"/>
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="L15" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M15" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N15" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O15" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P15" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q15" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R15" s="1"/>
       <x:c r="S15" s="1"/>
       <x:c r="T15" s="1"/>
@@ -1707,44 +1860,56 @@
     </x:row>
     <x:row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C16" s="7">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C16" s="12">
         <x:v>8782117608</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F16" s="10">
         <x:v>35590</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I16" s="1">
         <x:v>828800934</x:v>
       </x:c>
       <x:c r="J16" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K16" s="9" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="L16" s="1"/>
-      <x:c r="M16" s="1"/>
-      <x:c r="N16" s="1"/>
-      <x:c r="O16" s="1"/>
-      <x:c r="P16" s="1"/>
-      <x:c r="Q16" s="1"/>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="L16" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M16" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="N16" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O16" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P16" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q16" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="R16" s="1"/>
       <x:c r="S16" s="1"/>
       <x:c r="T16" s="1"/>
@@ -1788,6 +1953,9 @@
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
+  <x:ignoredErrors>
+    <x:ignoredError sqref="C2" numberStoredAsText="1"/>
+  </x:ignoredErrors>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\RPA_CreditCardApproval\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\Final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8A44D8-5CBD-47B9-BADC-DA615FB5D280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6DD7F4-725A-4E98-97F4-69C7B34146AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </x:bookViews>
@@ -115,6 +115,9 @@
     <x:t>113/1 Lý Thường Kiệt, Quận 2, Việt Nam</x:t>
   </x:si>
   <x:si>
+    <x:t>PASS</x:t>
+  </x:si>
+  <x:si>
     <x:t>APP0002</x:t>
   </x:si>
   <x:si>
@@ -154,12 +157,15 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>hoangthanhhieu@gmail.com</x:t>
+    <x:t>camtulearning@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>138 Tran Hung Dao, Hoan Kiem, Da Nang, Viet Nam</x:t>
   </x:si>
   <x:si>
+    <x:t>CHECK ADDRESS</x:t>
+  </x:si>
+  <x:si>
     <x:t>APP0004</x:t>
   </x:si>
   <x:si>
@@ -169,12 +175,36 @@
     <x:t>Bùi Quang Trang</x:t>
   </x:si>
   <x:si>
-    <x:t>buiquangtrang@gmail.com</x:t>
-  </x:si>
-  <x:si>
     <x:t>105 Nguyen Hue, Quan 3, Hai Phong, Viet Nam</x:t>
   </x:si>
   <x:si>
+    <x:t>APP0008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUST0008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ll680077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dana Mann</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/10/1966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+91 5686348183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4324 Jim Trace Apt. 582, Port Jonathon, WA 84373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REJECT</x:t>
+  </x:si>
+  <x:si>
     <x:t>APP0005</x:t>
   </x:si>
   <x:si>
@@ -220,36 +250,9 @@
     <x:t>Lý Đức An</x:t>
   </x:si>
   <x:si>
-    <x:t>lyducan@gmail.com</x:t>
-  </x:si>
-  <x:si>
     <x:t>160 Ly Thuong Kiet, Dong Da, TP Ho Chi Minh, Viet Nam</x:t>
   </x:si>
   <x:si>
-    <x:t>APP0008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUST0008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ll680077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dana Mann</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14/10/1966</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+91 5686348183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>danamann@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4324 Jim Trace Apt. 582, Port Jonathon, WA 84373</x:t>
-  </x:si>
-  <x:si>
     <x:t>APP0009</x:t>
   </x:si>
   <x:si>
@@ -262,9 +265,6 @@
     <x:t>15/11/1999</x:t>
   </x:si>
   <x:si>
-    <x:t>hoanganhyen@gmail.com</x:t>
-  </x:si>
-  <x:si>
     <x:t>192 Le Loi, Quan 7, Ha Noi, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -368,9 +368,6 @@
   </x:si>
   <x:si>
     <x:t>184 Tran Hung Dao, Dong Da, Da Nang, Viet Nam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>True</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -380,7 +377,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4" x14ac:knownFonts="1">
+  <x:fonts count="5" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -398,6 +395,14 @@
       <x:b/>
       <x:sz val="11"/>
       <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
@@ -523,8 +528,9 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -552,8 +558,11 @@
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment wrapText="1"/>
@@ -588,12 +597,16 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -910,8 +923,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:AA17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="Q4" sqref="Q4"/>
+    <x:sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <x:selection activeCell="O16" sqref="O16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,7 +932,9 @@
     <x:col min="1" max="2" width="14.664062" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.441406" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="17.441406" style="0" customWidth="1"/>
-    <x:col min="5" max="10" width="14.664062" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="25.332031" style="0" customWidth="1"/>
+    <x:col min="6" max="9" width="14.664062" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="24.554688" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="62.554688" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="14.664062" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="20.441406" style="0" customWidth="1"/>
@@ -928,7 +943,7 @@
     <x:col min="16" max="21" width="22.21875" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="1" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1025,10 +1040,14 @@
       <x:c r="K2" s="9" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="L2" s="1"/>
+      <x:c r="L2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M2" s="1"/>
       <x:c r="N2" s="1"/>
-      <x:c r="O2" s="1"/>
+      <x:c r="O2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P2" s="1"/>
       <x:c r="Q2" s="1"/>
       <x:c r="R2" s="1"/>
@@ -1040,47 +1059,49 @@
       <x:c r="X2" s="1"/>
       <x:c r="Y2" s="1"/>
       <x:c r="Z2" s="1"/>
-      <x:c r="AA2" s="12"/>
+      <x:c r="AA2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="L3" s="1"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M3" s="1"/>
       <x:c r="N3" s="1"/>
       <x:c r="O3" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P3" s="1"/>
       <x:c r="Q3" s="1"/>
@@ -1097,10 +1118,10 @@
     </x:row>
     <x:row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C4" s="7">
         <x:v>89854219200</x:v>
@@ -1109,13 +1130,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="10">
         <x:v>30502</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
         <x:v>23</x:v>
@@ -1123,16 +1144,20 @@
       <x:c r="I4" s="1">
         <x:v>836426617</x:v>
       </x:c>
-      <x:c r="J4" s="1" t="s">
-        <x:v>39</x:v>
+      <x:c r="J4" s="12" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K4" s="9" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="L4" s="1"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M4" s="1"/>
       <x:c r="N4" s="1"/>
-      <x:c r="O4" s="1"/>
+      <x:c r="O4" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="P4" s="1"/>
       <x:c r="Q4" s="1"/>
       <x:c r="R4" s="1"/>
@@ -1148,10 +1173,10 @@
     </x:row>
     <x:row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C5" s="7">
         <x:v>39667525772</x:v>
@@ -1160,13 +1185,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F5" s="10">
         <x:v>28075</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
         <x:v>23</x:v>
@@ -1174,16 +1199,20 @@
       <x:c r="I5" s="1">
         <x:v>878061855</x:v>
       </x:c>
-      <x:c r="J5" s="1" t="s">
-        <x:v>44</x:v>
+      <x:c r="J5" s="12" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K5" s="9" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L5" s="1"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M5" s="1"/>
       <x:c r="N5" s="1"/>
-      <x:c r="O5" s="1"/>
+      <x:c r="O5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P5" s="1"/>
       <x:c r="Q5" s="1"/>
       <x:c r="R5" s="1"/>
@@ -1199,44 +1228,50 @@
     </x:row>
     <x:row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C6" s="7">
-        <x:v>34153706524</x:v>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I6" s="1">
-        <x:v>761209301</x:v>
-      </x:c>
-      <x:c r="J6" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J6" s="12" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K6" s="9" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="L6" s="1"/>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L6" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M6" s="1"/>
       <x:c r="N6" s="1"/>
-      <x:c r="O6" s="1"/>
+      <x:c r="O6" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="P6" s="1"/>
-      <x:c r="Q6" s="1"/>
+      <x:c r="Q6" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="R6" s="1"/>
       <x:c r="S6" s="1"/>
       <x:c r="T6" s="1"/>
@@ -1250,42 +1285,46 @@
     </x:row>
     <x:row r="7" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C7" s="7">
-        <x:v>15446733779</x:v>
+        <x:v>34153706524</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="1">
-        <x:v>929771395</x:v>
+        <x:v>761209301</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="L7" s="1"/>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M7" s="1"/>
       <x:c r="N7" s="1"/>
-      <x:c r="O7" s="1"/>
+      <x:c r="O7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P7" s="1"/>
       <x:c r="Q7" s="1"/>
       <x:c r="R7" s="1"/>
@@ -1301,44 +1340,50 @@
     </x:row>
     <x:row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C8" s="7">
-        <x:v>40261367986</x:v>
+        <x:v>15446733779</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F8" s="10">
-        <x:v>33763</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="I8" s="1">
-        <x:v>787466707</x:v>
+        <x:v>929771395</x:v>
       </x:c>
       <x:c r="J8" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K8" s="9" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="L8" s="1"/>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="L8" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M8" s="1"/>
       <x:c r="N8" s="1"/>
-      <x:c r="O8" s="1"/>
+      <x:c r="O8" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="P8" s="1"/>
-      <x:c r="Q8" s="1"/>
+      <x:c r="Q8" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="R8" s="1"/>
       <x:c r="S8" s="1"/>
       <x:c r="T8" s="1"/>
@@ -1350,44 +1395,48 @@
       <x:c r="Z8" s="1"/>
       <x:c r="AA8" s="2"/>
     </x:row>
-    <x:row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C9" s="7">
+        <x:v>40261367986</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F9" s="10">
+        <x:v>33763</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="J9" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I9" s="1">
+        <x:v>787466707</x:v>
+      </x:c>
+      <x:c r="J9" s="12" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K9" s="9" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="L9" s="1"/>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="L9" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M9" s="1"/>
       <x:c r="N9" s="1"/>
-      <x:c r="O9" s="1"/>
+      <x:c r="O9" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P9" s="1"/>
       <x:c r="Q9" s="1"/>
       <x:c r="R9" s="1"/>
@@ -1403,10 +1452,10 @@
     </x:row>
     <x:row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>12646406653</x:v>
@@ -1415,13 +1464,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
         <x:v>23</x:v>
@@ -1429,16 +1478,20 @@
       <x:c r="I10" s="1">
         <x:v>847834130</x:v>
       </x:c>
-      <x:c r="J10" s="1" t="s">
-        <x:v>75</x:v>
+      <x:c r="J10" s="12" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K10" s="9" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="L10" s="1"/>
+      <x:c r="L10" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="M10" s="1"/>
       <x:c r="N10" s="1"/>
-      <x:c r="O10" s="1"/>
+      <x:c r="O10" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P10" s="1"/>
       <x:c r="Q10" s="1"/>
       <x:c r="R10" s="1"/>
@@ -1472,7 +1525,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
         <x:v>23</x:v>
@@ -1486,12 +1539,18 @@
       <x:c r="K11" s="9" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="L11" s="1"/>
+      <x:c r="L11" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M11" s="1"/>
       <x:c r="N11" s="1"/>
-      <x:c r="O11" s="1"/>
+      <x:c r="O11" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="P11" s="1"/>
-      <x:c r="Q11" s="1"/>
+      <x:c r="Q11" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="R11" s="1"/>
       <x:c r="S11" s="1"/>
       <x:c r="T11" s="1"/>
@@ -1523,7 +1582,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>23</x:v>
@@ -1537,10 +1596,14 @@
       <x:c r="K12" s="9" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="L12" s="1"/>
+      <x:c r="L12" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M12" s="1"/>
       <x:c r="N12" s="1"/>
-      <x:c r="O12" s="1"/>
+      <x:c r="O12" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P12" s="1"/>
       <x:c r="Q12" s="1"/>
       <x:c r="R12" s="1"/>
@@ -1588,10 +1651,14 @@
       <x:c r="K13" s="9" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="L13" s="1"/>
+      <x:c r="L13" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M13" s="1"/>
       <x:c r="N13" s="1"/>
-      <x:c r="O13" s="1"/>
+      <x:c r="O13" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="P13" s="1"/>
       <x:c r="Q13" s="1"/>
       <x:c r="R13" s="1"/>
@@ -1639,10 +1706,14 @@
       <x:c r="K14" s="9" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="L14" s="1"/>
+      <x:c r="L14" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M14" s="1"/>
       <x:c r="N14" s="1"/>
-      <x:c r="O14" s="1"/>
+      <x:c r="O14" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P14" s="1"/>
       <x:c r="Q14" s="1"/>
       <x:c r="R14" s="1"/>
@@ -1675,7 +1746,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>23</x:v>
@@ -1689,10 +1760,14 @@
       <x:c r="K15" s="9" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="L15" s="1"/>
+      <x:c r="L15" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M15" s="1"/>
       <x:c r="N15" s="1"/>
-      <x:c r="O15" s="1"/>
+      <x:c r="O15" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P15" s="1"/>
       <x:c r="Q15" s="1"/>
       <x:c r="R15" s="1"/>
@@ -1739,10 +1814,14 @@
       <x:c r="K16" s="9" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="L16" s="1"/>
+      <x:c r="L16" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="M16" s="1"/>
       <x:c r="N16" s="1"/>
-      <x:c r="O16" s="1"/>
+      <x:c r="O16" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="P16" s="1"/>
       <x:c r="Q16" s="1"/>
       <x:c r="R16" s="1"/>
@@ -1755,7 +1834,7 @@
       <x:c r="Y16" s="1"/>
       <x:c r="Z16" s="1"/>
     </x:row>
-    <x:row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <x:row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="1"/>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -1784,9 +1863,16 @@
       <x:c r="Z17" s="1"/>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="J10" r:id="rId7"/>
+    <x:hyperlink ref="J9" r:id="rId8"/>
+    <x:hyperlink ref="J5" r:id="rId9"/>
+    <x:hyperlink ref="J6" r:id="rId10"/>
+    <x:hyperlink ref="J4" r:id="rId11"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId6"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\Final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6DD7F4-725A-4E98-97F4-69C7B34146AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC05419-8C35-409C-B803-3681427BF698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </x:bookViews>
@@ -163,64 +163,64 @@
     <x:t>138 Tran Hung Dao, Hoan Kiem, Da Nang, Viet Nam</x:t>
   </x:si>
   <x:si>
+    <x:t>FAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REJECT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUST0004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bùi Quang Trang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105 Nguyen Hue, Quan 3, Hai Phong, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUST0008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ll680077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dana Mann</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/10/1966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+91 5686348183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4324 Jim Trace Apt. 582, Port Jonathon, WA 84373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUST0005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngô Quang Thịnh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/10/1996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngoquangthinh@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124 Nguyen Hue, Quan 7, Can Tho, Viet Nam</x:t>
+  </x:si>
+  <x:si>
     <x:t>CHECK ADDRESS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP0004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUST0004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bùi Quang Trang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105 Nguyen Hue, Quan 3, Hai Phong, Viet Nam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP0008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUST0008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ll680077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dana Mann</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14/10/1966</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+91 5686348183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4324 Jim Trace Apt. 582, Port Jonathon, WA 84373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REJECT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APP0005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUST0005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ngô Quang Thịnh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18/10/1996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ngoquangthinh@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124 Nguyen Hue, Quan 7, Can Tho, Viet Nam</x:t>
   </x:si>
   <x:si>
     <x:t>APP0006</x:t>
@@ -924,7 +924,7 @@
   <x:dimension ref="A1:AA17"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="O16" sqref="O16"/>
+      <x:selection activeCell="O2" sqref="O2 O2:Q17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,7 +1159,9 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="P4" s="1"/>
-      <x:c r="Q4" s="1"/>
+      <x:c r="Q4" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="R4" s="1"/>
       <x:c r="S4" s="1"/>
       <x:c r="T4" s="1"/>
@@ -1173,10 +1175,10 @@
     </x:row>
     <x:row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C5" s="7">
         <x:v>39667525772</x:v>
@@ -1185,7 +1187,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F5" s="10">
         <x:v>28075</x:v>
@@ -1203,7 +1205,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="K5" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
         <x:v>26</x:v>
@@ -1211,10 +1213,12 @@
       <x:c r="M5" s="1"/>
       <x:c r="N5" s="1"/>
       <x:c r="O5" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P5" s="1"/>
-      <x:c r="Q5" s="1"/>
+      <x:c r="Q5" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="R5" s="1"/>
       <x:c r="S5" s="1"/>
       <x:c r="T5" s="1"/>
@@ -1228,22 +1232,22 @@
     </x:row>
     <x:row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
         <x:v>22</x:v>
@@ -1252,13 +1256,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J6" s="12" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="K6" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
         <x:v>26</x:v>
@@ -1266,11 +1270,11 @@
       <x:c r="M6" s="1"/>
       <x:c r="N6" s="1"/>
       <x:c r="O6" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P6" s="1"/>
       <x:c r="Q6" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="R6" s="1"/>
       <x:c r="S6" s="1"/>
@@ -1285,10 +1289,10 @@
     </x:row>
     <x:row r="7" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="C7" s="7">
         <x:v>34153706524</x:v>
@@ -1297,10 +1301,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>59</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
         <x:v>39</x:v>
@@ -1312,10 +1316,10 @@
         <x:v>761209301</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K7" s="9" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="K7" s="9" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
         <x:v>26</x:v>
@@ -1323,7 +1327,7 @@
       <x:c r="M7" s="1"/>
       <x:c r="N7" s="1"/>
       <x:c r="O7" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="P7" s="1"/>
       <x:c r="Q7" s="1"/>
@@ -1378,12 +1382,10 @@
       <x:c r="M8" s="1"/>
       <x:c r="N8" s="1"/>
       <x:c r="O8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P8" s="1"/>
-      <x:c r="Q8" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
+      <x:c r="Q8" s="1"/>
       <x:c r="R8" s="1"/>
       <x:c r="S8" s="1"/>
       <x:c r="T8" s="1"/>
@@ -1435,7 +1437,7 @@
       <x:c r="M9" s="1"/>
       <x:c r="N9" s="1"/>
       <x:c r="O9" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="P9" s="1"/>
       <x:c r="Q9" s="1"/>
@@ -1485,13 +1487,11 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="L10" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M10" s="1"/>
       <x:c r="N10" s="1"/>
-      <x:c r="O10" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="O10" s="1"/>
       <x:c r="P10" s="1"/>
       <x:c r="Q10" s="1"/>
       <x:c r="R10" s="1"/>
@@ -1545,12 +1545,10 @@
       <x:c r="M11" s="1"/>
       <x:c r="N11" s="1"/>
       <x:c r="O11" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P11" s="1"/>
-      <x:c r="Q11" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
+      <x:c r="Q11" s="1"/>
       <x:c r="R11" s="1"/>
       <x:c r="S11" s="1"/>
       <x:c r="T11" s="1"/>
@@ -1657,7 +1655,7 @@
       <x:c r="M13" s="1"/>
       <x:c r="N13" s="1"/>
       <x:c r="O13" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P13" s="1"/>
       <x:c r="Q13" s="1"/>
@@ -1864,11 +1862,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="J10" r:id="rId7"/>
-    <x:hyperlink ref="J9" r:id="rId8"/>
-    <x:hyperlink ref="J5" r:id="rId9"/>
-    <x:hyperlink ref="J6" r:id="rId10"/>
-    <x:hyperlink ref="J4" r:id="rId11"/>
+    <x:hyperlink ref="J10" r:id="rId11"/>
+    <x:hyperlink ref="J9" r:id="rId17"/>
+    <x:hyperlink ref="J5" r:id="rId18"/>
+    <x:hyperlink ref="J6" r:id="rId19"/>
+    <x:hyperlink ref="J4" r:id="rId20"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\Final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC05419-8C35-409C-B803-3681427BF698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B08C932-1A2C-43EA-95D8-B629D62690D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </x:bookViews>
@@ -924,7 +924,7 @@
   <x:dimension ref="A1:AA17"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="O2" sqref="O2 O2:Q17"/>
+      <x:selection activeCell="O16" sqref="O16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,11 +1862,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="J10" r:id="rId11"/>
-    <x:hyperlink ref="J9" r:id="rId17"/>
-    <x:hyperlink ref="J5" r:id="rId18"/>
-    <x:hyperlink ref="J6" r:id="rId19"/>
-    <x:hyperlink ref="J4" r:id="rId20"/>
+    <x:hyperlink ref="J10" r:id="rId7"/>
+    <x:hyperlink ref="J9" r:id="rId8"/>
+    <x:hyperlink ref="J5" r:id="rId9"/>
+    <x:hyperlink ref="J6" r:id="rId10"/>
+    <x:hyperlink ref="J4" r:id="rId11"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UEL\RPA\RPA_CreditCardApproval\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiiyuoo\Senior\RPA\RPA_CreditCardApproval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD52F334-F758-4915-B251-533781A91B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFF1640-98A5-4A1B-81CC-69F22F9D2CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4611" uniqueCount="3055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="3056">
   <si>
     <t>application_id</t>
   </si>
@@ -9190,6 +9190,9 @@
   </si>
   <si>
     <t>incomes</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -9483,26 +9486,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="5" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.36328125" customWidth="1"/>
+    <col min="14" max="14" width="18.453125" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" customWidth="1"/>
-    <col min="18" max="26" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.36328125" customWidth="1"/>
+    <col min="17" max="17" width="14.54296875" customWidth="1"/>
+    <col min="18" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9555,7 +9559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -9589,8 +9593,11 @@
       <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -9624,8 +9631,11 @@
       <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -9659,8 +9669,11 @@
       <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -9694,8 +9707,11 @@
       <c r="K5" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -9729,8 +9745,11 @@
       <c r="K6" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -9764,8 +9783,11 @@
       <c r="K7" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>58</v>
       </c>
@@ -9799,8 +9821,11 @@
       <c r="K8" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -9834,8 +9859,11 @@
       <c r="K9" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
@@ -9869,8 +9897,11 @@
       <c r="K10" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -9904,8 +9935,11 @@
       <c r="K11" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -9939,8 +9973,11 @@
       <c r="K12" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
@@ -9974,8 +10011,11 @@
       <c r="K13" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>95</v>
       </c>
@@ -10009,8 +10049,11 @@
       <c r="K14" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -10044,8 +10087,11 @@
       <c r="K15" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>107</v>
       </c>
@@ -10079,8 +10125,11 @@
       <c r="K16" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>113</v>
       </c>
@@ -10114,8 +10163,11 @@
       <c r="K17" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>119</v>
       </c>
@@ -10149,8 +10201,11 @@
       <c r="K18" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>125</v>
       </c>
@@ -10184,8 +10239,11 @@
       <c r="K19" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>131</v>
       </c>
@@ -10220,7 +10278,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>137</v>
       </c>
@@ -10255,7 +10313,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>144</v>
       </c>
@@ -10290,7 +10348,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>151</v>
       </c>
@@ -10325,7 +10383,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
@@ -10360,7 +10418,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>164</v>
       </c>
@@ -10395,7 +10453,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>170</v>
       </c>
@@ -10430,7 +10488,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>176</v>
       </c>
@@ -10465,7 +10523,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>182</v>
       </c>
@@ -10500,7 +10558,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>188</v>
       </c>
@@ -10535,7 +10593,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>194</v>
       </c>
@@ -10570,7 +10628,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>200</v>
       </c>
@@ -10605,7 +10663,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>206</v>
       </c>
@@ -10640,7 +10698,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>212</v>
       </c>
@@ -10675,7 +10733,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>218</v>
       </c>
@@ -10710,7 +10768,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>224</v>
       </c>
@@ -10745,7 +10803,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>230</v>
       </c>
@@ -10780,7 +10838,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>236</v>
       </c>
@@ -10815,7 +10873,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>243</v>
       </c>
@@ -10850,7 +10908,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>249</v>
       </c>
@@ -10885,7 +10943,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>255</v>
       </c>
@@ -10920,7 +10978,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>261</v>
       </c>
@@ -10955,7 +11013,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>267</v>
       </c>
@@ -10990,7 +11048,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>274</v>
       </c>
@@ -11025,7 +11083,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>280</v>
       </c>
@@ -11060,7 +11118,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>286</v>
       </c>
@@ -11095,7 +11153,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>292</v>
       </c>
@@ -11130,7 +11188,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>298</v>
       </c>
@@ -11165,7 +11223,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>304</v>
       </c>
@@ -11200,7 +11258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>310</v>
       </c>
@@ -11235,7 +11293,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>316</v>
       </c>
@@ -11270,7 +11328,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>322</v>
       </c>
@@ -11305,7 +11363,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>328</v>
       </c>
@@ -11340,7 +11398,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>334</v>
       </c>
@@ -11375,7 +11433,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>340</v>
       </c>
@@ -11410,7 +11468,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>346</v>
       </c>
@@ -11445,7 +11503,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>352</v>
       </c>
@@ -11480,7 +11538,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>359</v>
       </c>
@@ -11515,7 +11573,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>365</v>
       </c>
@@ -11550,7 +11608,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>371</v>
       </c>
@@ -11585,7 +11643,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>377</v>
       </c>
@@ -11620,7 +11678,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>383</v>
       </c>
@@ -11655,7 +11713,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>389</v>
       </c>
@@ -11690,7 +11748,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>395</v>
       </c>
@@ -11725,7 +11783,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>399</v>
       </c>
@@ -11760,7 +11818,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>405</v>
       </c>
@@ -11795,7 +11853,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>411</v>
       </c>
@@ -11830,7 +11888,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>417</v>
       </c>
@@ -11865,7 +11923,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>423</v>
       </c>
@@ -11900,7 +11958,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>429</v>
       </c>
@@ -11935,7 +11993,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>435</v>
       </c>
@@ -11970,7 +12028,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>441</v>
       </c>
@@ -12005,7 +12063,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>447</v>
       </c>
@@ -12040,7 +12098,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>453</v>
       </c>
@@ -12075,7 +12133,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>459</v>
       </c>
@@ -12110,7 +12168,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>465</v>
       </c>
@@ -12145,7 +12203,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>471</v>
       </c>
@@ -12180,7 +12238,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>477</v>
       </c>
@@ -12215,7 +12273,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>483</v>
       </c>
@@ -12250,7 +12308,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>490</v>
       </c>
@@ -12285,7 +12343,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>497</v>
       </c>
@@ -12320,7 +12378,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>503</v>
       </c>
@@ -12355,7 +12413,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>510</v>
       </c>
@@ -12390,7 +12448,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>517</v>
       </c>
@@ -12425,7 +12483,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>523</v>
       </c>
@@ -12460,7 +12518,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>529</v>
       </c>
@@ -12495,7 +12553,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>535</v>
       </c>
@@ -12530,7 +12588,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>542</v>
       </c>
@@ -12565,7 +12623,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>548</v>
       </c>
@@ -12600,7 +12658,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>554</v>
       </c>
@@ -12635,7 +12693,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>561</v>
       </c>
@@ -12670,7 +12728,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>567</v>
       </c>
@@ -12705,7 +12763,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>573</v>
       </c>
@@ -12740,7 +12798,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>579</v>
       </c>
@@ -12775,7 +12833,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>585</v>
       </c>
@@ -12810,7 +12868,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>592</v>
       </c>
@@ -12845,7 +12903,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>598</v>
       </c>
@@ -12880,7 +12938,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>604</v>
       </c>
@@ -12915,7 +12973,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>610</v>
       </c>
@@ -12950,7 +13008,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>616</v>
       </c>
@@ -12985,7 +13043,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>622</v>
       </c>
@@ -13020,7 +13078,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>628</v>
       </c>
@@ -13055,7 +13113,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>632</v>
       </c>
@@ -13090,7 +13148,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>638</v>
       </c>
@@ -13125,7 +13183,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>644</v>
       </c>
@@ -13160,7 +13218,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>650</v>
       </c>
@@ -13195,7 +13253,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>657</v>
       </c>
@@ -13230,7 +13288,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>663</v>
       </c>
@@ -13265,7 +13323,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>669</v>
       </c>
@@ -13300,7 +13358,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>676</v>
       </c>
@@ -13335,7 +13393,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>682</v>
       </c>
@@ -13370,7 +13428,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>688</v>
       </c>
@@ -13405,7 +13463,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>694</v>
       </c>
@@ -13440,7 +13498,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>700</v>
       </c>
@@ -13475,7 +13533,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>704</v>
       </c>
@@ -13510,7 +13568,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>710</v>
       </c>
@@ -13545,7 +13603,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>716</v>
       </c>
@@ -13580,7 +13638,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>723</v>
       </c>
@@ -13615,7 +13673,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>729</v>
       </c>
@@ -13650,7 +13708,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>735</v>
       </c>
@@ -13685,7 +13743,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>741</v>
       </c>
@@ -13720,7 +13778,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>747</v>
       </c>
@@ -13755,7 +13813,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>753</v>
       </c>
@@ -13790,7 +13848,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>759</v>
       </c>
@@ -13825,7 +13883,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>765</v>
       </c>
@@ -13860,7 +13918,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>772</v>
       </c>
@@ -13895,7 +13953,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>778</v>
       </c>
@@ -13930,7 +13988,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>784</v>
       </c>
@@ -13965,7 +14023,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>790</v>
       </c>
@@ -14000,7 +14058,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>797</v>
       </c>
@@ -14035,7 +14093,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>803</v>
       </c>
@@ -14070,7 +14128,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>810</v>
       </c>
@@ -14105,7 +14163,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>816</v>
       </c>
@@ -14140,7 +14198,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>822</v>
       </c>
@@ -14175,7 +14233,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>828</v>
       </c>
@@ -14210,7 +14268,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>834</v>
       </c>
@@ -14245,7 +14303,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>841</v>
       </c>
@@ -14280,7 +14338,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>847</v>
       </c>
@@ -14315,7 +14373,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>854</v>
       </c>
@@ -14350,7 +14408,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>860</v>
       </c>
@@ -14385,7 +14443,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>866</v>
       </c>
@@ -14420,7 +14478,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>872</v>
       </c>
@@ -14455,7 +14513,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>878</v>
       </c>
@@ -14490,7 +14548,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>884</v>
       </c>
@@ -14525,7 +14583,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>890</v>
       </c>
@@ -14560,7 +14618,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>896</v>
       </c>
@@ -14595,7 +14653,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>902</v>
       </c>
@@ -14630,7 +14688,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>909</v>
       </c>
@@ -14665,7 +14723,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>915</v>
       </c>
@@ -14700,7 +14758,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>921</v>
       </c>
@@ -14735,7 +14793,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>927</v>
       </c>
@@ -14770,7 +14828,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>933</v>
       </c>
@@ -14805,7 +14863,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>939</v>
       </c>
@@ -14840,7 +14898,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>945</v>
       </c>
@@ -14875,7 +14933,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>951</v>
       </c>
@@ -14910,7 +14968,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>957</v>
       </c>
@@ -14945,7 +15003,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>963</v>
       </c>
@@ -14980,7 +15038,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>969</v>
       </c>
@@ -15015,7 +15073,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>975</v>
       </c>
@@ -15050,7 +15108,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>981</v>
       </c>
@@ -15085,7 +15143,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>987</v>
       </c>
@@ -15120,7 +15178,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>993</v>
       </c>
@@ -15155,7 +15213,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>999</v>
       </c>
@@ -15190,7 +15248,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>1005</v>
       </c>
@@ -15225,7 +15283,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>1011</v>
       </c>
@@ -15260,7 +15318,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>1017</v>
       </c>
@@ -15295,7 +15353,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>1023</v>
       </c>
@@ -15330,7 +15388,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>1029</v>
       </c>
@@ -15365,7 +15423,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>1035</v>
       </c>
@@ -15400,7 +15458,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>1042</v>
       </c>
@@ -15435,7 +15493,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>1048</v>
       </c>
@@ -15470,7 +15528,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>1055</v>
       </c>
@@ -15505,7 +15563,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>1061</v>
       </c>
@@ -15540,7 +15598,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>1065</v>
       </c>
@@ -15575,7 +15633,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>1071</v>
       </c>
@@ -15610,7 +15668,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>1077</v>
       </c>
@@ -15645,7 +15703,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>1083</v>
       </c>
@@ -15680,7 +15738,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>1089</v>
       </c>
@@ -15715,7 +15773,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>1095</v>
       </c>
@@ -15750,7 +15808,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>1101</v>
       </c>
@@ -15785,7 +15843,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>1107</v>
       </c>
@@ -15820,7 +15878,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>1113</v>
       </c>
@@ -15855,7 +15913,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>1119</v>
       </c>
@@ -15890,7 +15948,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>1125</v>
       </c>
@@ -15925,7 +15983,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>1131</v>
       </c>
@@ -15960,7 +16018,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>1138</v>
       </c>
@@ -15995,7 +16053,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>1144</v>
       </c>
@@ -16030,7 +16088,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>1151</v>
       </c>
@@ -16065,7 +16123,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>1157</v>
       </c>
@@ -16100,7 +16158,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>1163</v>
       </c>
@@ -16135,7 +16193,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>1169</v>
       </c>
@@ -16170,7 +16228,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>1175</v>
       </c>
@@ -16205,7 +16263,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>1181</v>
       </c>
@@ -16240,7 +16298,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>1188</v>
       </c>
@@ -16275,7 +16333,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>1194</v>
       </c>
@@ -16310,7 +16368,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>1200</v>
       </c>
@@ -16345,7 +16403,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>1207</v>
       </c>
@@ -16380,7 +16438,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16415,7 +16473,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>1219</v>
       </c>
@@ -16450,7 +16508,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>1225</v>
       </c>
@@ -16485,7 +16543,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>1231</v>
       </c>
@@ -16520,7 +16578,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>1238</v>
       </c>
@@ -16555,7 +16613,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>1242</v>
       </c>
@@ -16590,7 +16648,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>1248</v>
       </c>
@@ -16625,7 +16683,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>1254</v>
       </c>
@@ -16660,7 +16718,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>1260</v>
       </c>
@@ -16695,7 +16753,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>1266</v>
       </c>
@@ -16730,7 +16788,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>1272</v>
       </c>
@@ -16765,7 +16823,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>1278</v>
       </c>
@@ -16800,7 +16858,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>1284</v>
       </c>
@@ -16835,7 +16893,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>1290</v>
       </c>
@@ -16870,7 +16928,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>1296</v>
       </c>
@@ -16905,7 +16963,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>1302</v>
       </c>
@@ -16940,7 +16998,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>1306</v>
       </c>
@@ -16975,7 +17033,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>1312</v>
       </c>
@@ -17010,7 +17068,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>1319</v>
       </c>
@@ -17045,7 +17103,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>1325</v>
       </c>
@@ -17080,7 +17138,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>1332</v>
       </c>
@@ -17115,7 +17173,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>1338</v>
       </c>
@@ -17150,7 +17208,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>1344</v>
       </c>
@@ -17185,7 +17243,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>1350</v>
       </c>
@@ -17220,7 +17278,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>1356</v>
       </c>
@@ -17255,7 +17313,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>1363</v>
       </c>
@@ -17290,7 +17348,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>1370</v>
       </c>
@@ -17325,7 +17383,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>1376</v>
       </c>
@@ -17360,7 +17418,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>1382</v>
       </c>
@@ -17395,7 +17453,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>1388</v>
       </c>
@@ -17430,7 +17488,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>1394</v>
       </c>
@@ -17465,7 +17523,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>1400</v>
       </c>
@@ -17500,7 +17558,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>1407</v>
       </c>
@@ -17535,7 +17593,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>1413</v>
       </c>
@@ -17570,7 +17628,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>1419</v>
       </c>
@@ -17605,7 +17663,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>1423</v>
       </c>
@@ -17640,7 +17698,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>1429</v>
       </c>
@@ -17675,7 +17733,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>1433</v>
       </c>
@@ -17710,7 +17768,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>1439</v>
       </c>
@@ -17745,7 +17803,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>1446</v>
       </c>
@@ -17780,7 +17838,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>1452</v>
       </c>
@@ -17815,7 +17873,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>1458</v>
       </c>
@@ -17850,7 +17908,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>1465</v>
       </c>
@@ -17885,7 +17943,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>1471</v>
       </c>
@@ -17920,7 +17978,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>1477</v>
       </c>
@@ -17955,7 +18013,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>1483</v>
       </c>
@@ -17990,7 +18048,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>1489</v>
       </c>
@@ -18025,7 +18083,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>1496</v>
       </c>
@@ -18060,7 +18118,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>1502</v>
       </c>
@@ -18095,7 +18153,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>1508</v>
       </c>
@@ -18130,7 +18188,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>1514</v>
       </c>
@@ -18165,7 +18223,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>1520</v>
       </c>
@@ -18200,7 +18258,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>1526</v>
       </c>
@@ -18235,7 +18293,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>1531</v>
       </c>
@@ -18270,7 +18328,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>1537</v>
       </c>
@@ -18305,7 +18363,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>1543</v>
       </c>
@@ -18340,7 +18398,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>1547</v>
       </c>
@@ -18375,7 +18433,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>1553</v>
       </c>
@@ -18410,7 +18468,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>1559</v>
       </c>
@@ -18445,7 +18503,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>1563</v>
       </c>
@@ -18480,7 +18538,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>1569</v>
       </c>
@@ -18515,7 +18573,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>1575</v>
       </c>
@@ -18550,7 +18608,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>1581</v>
       </c>
@@ -18585,7 +18643,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>1587</v>
       </c>
@@ -18620,7 +18678,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>1593</v>
       </c>
@@ -18655,7 +18713,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>1599</v>
       </c>
@@ -18690,7 +18748,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>1605</v>
       </c>
@@ -18725,7 +18783,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>1611</v>
       </c>
@@ -18760,7 +18818,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>1617</v>
       </c>
@@ -18795,7 +18853,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>1623</v>
       </c>
@@ -18830,7 +18888,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>1630</v>
       </c>
@@ -18865,7 +18923,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>1636</v>
       </c>
@@ -18900,7 +18958,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>1642</v>
       </c>
@@ -18935,7 +18993,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>1648</v>
       </c>
@@ -18970,7 +19028,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>1655</v>
       </c>
@@ -19005,7 +19063,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>1661</v>
       </c>
@@ -19040,7 +19098,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>1667</v>
       </c>
@@ -19075,7 +19133,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>1673</v>
       </c>
@@ -19110,7 +19168,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>1680</v>
       </c>
@@ -19145,7 +19203,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>1686</v>
       </c>
@@ -19180,7 +19238,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>1693</v>
       </c>
@@ -19215,7 +19273,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>1699</v>
       </c>
@@ -19250,7 +19308,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>1705</v>
       </c>
@@ -19285,7 +19343,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>1711</v>
       </c>
@@ -19320,7 +19378,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>1717</v>
       </c>
@@ -19355,7 +19413,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>1723</v>
       </c>
@@ -19390,7 +19448,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>1729</v>
       </c>
@@ -19425,7 +19483,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>1736</v>
       </c>
@@ -19460,7 +19518,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>1743</v>
       </c>
@@ -19495,7 +19553,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>1749</v>
       </c>
@@ -19530,7 +19588,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>1756</v>
       </c>
@@ -19565,7 +19623,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>1762</v>
       </c>
@@ -19600,7 +19658,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>1768</v>
       </c>
@@ -19635,7 +19693,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>1774</v>
       </c>
@@ -19670,7 +19728,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>1781</v>
       </c>
@@ -19705,7 +19763,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>1787</v>
       </c>
@@ -19740,7 +19798,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>1793</v>
       </c>
@@ -19775,7 +19833,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>1799</v>
       </c>
@@ -19810,7 +19868,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>1805</v>
       </c>
@@ -19845,7 +19903,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>1811</v>
       </c>
@@ -19880,7 +19938,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>1817</v>
       </c>
@@ -19915,7 +19973,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>1822</v>
       </c>
@@ -19950,7 +20008,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>1828</v>
       </c>
@@ -19985,7 +20043,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>1834</v>
       </c>
@@ -20020,7 +20078,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>1840</v>
       </c>
@@ -20055,7 +20113,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>1846</v>
       </c>
@@ -20090,7 +20148,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>1852</v>
       </c>
@@ -20125,7 +20183,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>1858</v>
       </c>
@@ -20160,7 +20218,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>1864</v>
       </c>
@@ -20195,7 +20253,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>1870</v>
       </c>
@@ -20230,7 +20288,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>1877</v>
       </c>
@@ -20265,7 +20323,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>1883</v>
       </c>
@@ -20300,7 +20358,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>1890</v>
       </c>
@@ -20335,7 +20393,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>1896</v>
       </c>
@@ -20370,7 +20428,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>1902</v>
       </c>
@@ -20405,7 +20463,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>1908</v>
       </c>
@@ -20440,7 +20498,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>1914</v>
       </c>
@@ -20475,7 +20533,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>1918</v>
       </c>
@@ -20510,7 +20568,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>1924</v>
       </c>
@@ -20545,7 +20603,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>1930</v>
       </c>
@@ -20580,7 +20638,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>1936</v>
       </c>
@@ -20615,7 +20673,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>1942</v>
       </c>
@@ -20650,7 +20708,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>1946</v>
       </c>
@@ -20685,7 +20743,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>1953</v>
       </c>
@@ -20720,7 +20778,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>1959</v>
       </c>
@@ -20755,7 +20813,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>1965</v>
       </c>
@@ -20790,7 +20848,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>1972</v>
       </c>
@@ -20825,7 +20883,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>1978</v>
       </c>
@@ -20860,7 +20918,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>1984</v>
       </c>
@@ -20895,7 +20953,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>1990</v>
       </c>
@@ -20930,7 +20988,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>1997</v>
       </c>
@@ -20965,7 +21023,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>2003</v>
       </c>
@@ -21000,7 +21058,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>2007</v>
       </c>
@@ -21035,7 +21093,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>2013</v>
       </c>
@@ -21070,7 +21128,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>2019</v>
       </c>
@@ -21105,7 +21163,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>2025</v>
       </c>
@@ -21140,7 +21198,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>2031</v>
       </c>
@@ -21175,7 +21233,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>2037</v>
       </c>
@@ -21210,7 +21268,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>2043</v>
       </c>
@@ -21245,7 +21303,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>2049</v>
       </c>
@@ -21280,7 +21338,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>2055</v>
       </c>
@@ -21315,7 +21373,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>2062</v>
       </c>
@@ -21350,7 +21408,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>2068</v>
       </c>
@@ -21385,7 +21443,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>2074</v>
       </c>
@@ -21420,7 +21478,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>2080</v>
       </c>
@@ -21455,7 +21513,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>2084</v>
       </c>
@@ -21490,7 +21548,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>2090</v>
       </c>
@@ -21525,7 +21583,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>2096</v>
       </c>
@@ -21560,7 +21618,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>2102</v>
       </c>
@@ -21595,7 +21653,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>2108</v>
       </c>
@@ -21630,7 +21688,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>2112</v>
       </c>
@@ -21665,7 +21723,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>2118</v>
       </c>
@@ -21700,7 +21758,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>2125</v>
       </c>
@@ -21735,7 +21793,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>2132</v>
       </c>
@@ -21770,7 +21828,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>2138</v>
       </c>
@@ -21805,7 +21863,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>2144</v>
       </c>
@@ -21840,7 +21898,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>2150</v>
       </c>
@@ -21875,7 +21933,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>2156</v>
       </c>
@@ -21910,7 +21968,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>2162</v>
       </c>
@@ -21945,7 +22003,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>2168</v>
       </c>
@@ -21980,7 +22038,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>2172</v>
       </c>
@@ -22015,7 +22073,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>2179</v>
       </c>
@@ -22050,7 +22108,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>2186</v>
       </c>
@@ -22085,7 +22143,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>2192</v>
       </c>
@@ -22120,7 +22178,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>2196</v>
       </c>
@@ -22155,7 +22213,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>2202</v>
       </c>
@@ -22190,7 +22248,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>2208</v>
       </c>
@@ -22225,7 +22283,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>2214</v>
       </c>
@@ -22260,7 +22318,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>2220</v>
       </c>
@@ -22295,7 +22353,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>2227</v>
       </c>
@@ -22330,7 +22388,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>2234</v>
       </c>
@@ -22365,7 +22423,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>2240</v>
       </c>
@@ -22400,7 +22458,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>2246</v>
       </c>
@@ -22435,7 +22493,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>2252</v>
       </c>
@@ -22470,7 +22528,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>2258</v>
       </c>
@@ -22505,7 +22563,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>2264</v>
       </c>
@@ -22540,7 +22598,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>2270</v>
       </c>
@@ -22575,7 +22633,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>2275</v>
       </c>
@@ -22610,7 +22668,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>2281</v>
       </c>
@@ -22645,7 +22703,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>2287</v>
       </c>
@@ -22680,7 +22738,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>2293</v>
       </c>
@@ -22715,7 +22773,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>2299</v>
       </c>
@@ -22750,7 +22808,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>2305</v>
       </c>
@@ -22785,7 +22843,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>2311</v>
       </c>
@@ -22820,7 +22878,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>2317</v>
       </c>
@@ -22855,7 +22913,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>2323</v>
       </c>
@@ -22890,7 +22948,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>2329</v>
       </c>
@@ -22925,7 +22983,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>2335</v>
       </c>
@@ -22960,7 +23018,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>2341</v>
       </c>
@@ -22995,7 +23053,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>2347</v>
       </c>
@@ -23030,7 +23088,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>2353</v>
       </c>
@@ -23065,7 +23123,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>2359</v>
       </c>
@@ -23100,7 +23158,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>2365</v>
       </c>
@@ -23135,7 +23193,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>2371</v>
       </c>
@@ -23170,7 +23228,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>2377</v>
       </c>
@@ -23205,7 +23263,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>2384</v>
       </c>
@@ -23240,7 +23298,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>2390</v>
       </c>
@@ -23275,7 +23333,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>2395</v>
       </c>
@@ -23310,7 +23368,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>2401</v>
       </c>
@@ -23345,7 +23403,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>2408</v>
       </c>
@@ -23380,7 +23438,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>2414</v>
       </c>
@@ -23415,7 +23473,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>2420</v>
       </c>
@@ -23450,7 +23508,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>2426</v>
       </c>
@@ -23485,7 +23543,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>2432</v>
       </c>
@@ -23520,7 +23578,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>2438</v>
       </c>
@@ -23555,7 +23613,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>2444</v>
       </c>
@@ -23590,7 +23648,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>2448</v>
       </c>
@@ -23625,7 +23683,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>2454</v>
       </c>
@@ -23660,7 +23718,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>2460</v>
       </c>
@@ -23695,7 +23753,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>2466</v>
       </c>
@@ -23730,7 +23788,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>2472</v>
       </c>
@@ -23765,7 +23823,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>2478</v>
       </c>
@@ -23800,7 +23858,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>2483</v>
       </c>
@@ -23835,7 +23893,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>2489</v>
       </c>
@@ -23870,7 +23928,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>2495</v>
       </c>
@@ -23905,7 +23963,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>2501</v>
       </c>
@@ -23940,7 +23998,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>2507</v>
       </c>
@@ -23975,7 +24033,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>2514</v>
       </c>
@@ -24010,7 +24068,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>2521</v>
       </c>
@@ -24045,7 +24103,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>2527</v>
       </c>
@@ -24080,7 +24138,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>2534</v>
       </c>
@@ -24115,7 +24173,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>2538</v>
       </c>
@@ -24150,7 +24208,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>2544</v>
       </c>
@@ -24185,7 +24243,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>2550</v>
       </c>
@@ -24220,7 +24278,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>2556</v>
       </c>
@@ -24255,7 +24313,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>2562</v>
       </c>
@@ -24290,7 +24348,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>2568</v>
       </c>
@@ -24325,7 +24383,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>2574</v>
       </c>
@@ -24360,7 +24418,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>2580</v>
       </c>
@@ -24395,7 +24453,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>2587</v>
       </c>
@@ -24430,7 +24488,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>2594</v>
       </c>
@@ -24465,7 +24523,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>2598</v>
       </c>
@@ -24500,7 +24558,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>2604</v>
       </c>
@@ -24535,7 +24593,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>2610</v>
       </c>
@@ -24570,7 +24628,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>2617</v>
       </c>
@@ -24605,7 +24663,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>2623</v>
       </c>
@@ -24640,7 +24698,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>2629</v>
       </c>
@@ -24675,7 +24733,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>2636</v>
       </c>
@@ -24710,7 +24768,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>2643</v>
       </c>
@@ -24745,7 +24803,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>2649</v>
       </c>
@@ -24780,7 +24838,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>2655</v>
       </c>
@@ -24815,7 +24873,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>2658</v>
       </c>
@@ -24850,7 +24908,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>2664</v>
       </c>
@@ -24885,7 +24943,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>2670</v>
       </c>
@@ -24920,7 +24978,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>2677</v>
       </c>
@@ -24955,7 +25013,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>2683</v>
       </c>
@@ -24990,7 +25048,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>2690</v>
       </c>
@@ -25025,7 +25083,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>2696</v>
       </c>
@@ -25060,7 +25118,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>2702</v>
       </c>
@@ -25095,7 +25153,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>2709</v>
       </c>
@@ -25130,7 +25188,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>2715</v>
       </c>
@@ -25165,7 +25223,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>2721</v>
       </c>
@@ -25200,7 +25258,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>2727</v>
       </c>
@@ -25235,7 +25293,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>2733</v>
       </c>
@@ -25270,7 +25328,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>2740</v>
       </c>
@@ -25305,7 +25363,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>2744</v>
       </c>
@@ -25340,7 +25398,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>2750</v>
       </c>
@@ -25375,7 +25433,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>2756</v>
       </c>
@@ -25410,7 +25468,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>2762</v>
       </c>
@@ -25445,7 +25503,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>2768</v>
       </c>
@@ -25480,7 +25538,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>2774</v>
       </c>
@@ -25515,7 +25573,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>2780</v>
       </c>
@@ -25550,7 +25608,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>2786</v>
       </c>
@@ -25585,7 +25643,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>2792</v>
       </c>
@@ -25620,7 +25678,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>2798</v>
       </c>
@@ -25655,7 +25713,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>2804</v>
       </c>
@@ -25690,7 +25748,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>2810</v>
       </c>
@@ -25725,7 +25783,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>2816</v>
       </c>
@@ -25760,7 +25818,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>2822</v>
       </c>
@@ -25795,7 +25853,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>2828</v>
       </c>
@@ -25830,7 +25888,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>2834</v>
       </c>
@@ -25865,7 +25923,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>2839</v>
       </c>
@@ -25900,7 +25958,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>2845</v>
       </c>
@@ -25935,7 +25993,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>2851</v>
       </c>
@@ -25970,7 +26028,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>2857</v>
       </c>
@@ -26005,7 +26063,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>2863</v>
       </c>
@@ -26040,7 +26098,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>2870</v>
       </c>
@@ -26075,7 +26133,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>2876</v>
       </c>
@@ -26110,7 +26168,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>2882</v>
       </c>
@@ -26145,7 +26203,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>2888</v>
       </c>
@@ -26180,7 +26238,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>2894</v>
       </c>
@@ -26215,7 +26273,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>2900</v>
       </c>
@@ -26250,7 +26308,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>2906</v>
       </c>
@@ -26285,7 +26343,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>2912</v>
       </c>
@@ -26320,7 +26378,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>2918</v>
       </c>
@@ -26355,7 +26413,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>2924</v>
       </c>
@@ -26390,7 +26448,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>2930</v>
       </c>
@@ -26425,7 +26483,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>2936</v>
       </c>
@@ -26460,7 +26518,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>2942</v>
       </c>
@@ -26495,7 +26553,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>2948</v>
       </c>
@@ -26530,7 +26588,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>2955</v>
       </c>
@@ -26565,7 +26623,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>2961</v>
       </c>
@@ -26600,7 +26658,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>2965</v>
       </c>
@@ -26635,7 +26693,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>2970</v>
       </c>
@@ -26670,7 +26728,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>2976</v>
       </c>
@@ -26705,7 +26763,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>2982</v>
       </c>
@@ -26740,7 +26798,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>2988</v>
       </c>
@@ -26775,7 +26833,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>2994</v>
       </c>
@@ -26810,7 +26868,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>3000</v>
       </c>
@@ -26845,7 +26903,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>3006</v>
       </c>
@@ -26880,7 +26938,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>3012</v>
       </c>
@@ -26915,7 +26973,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>3018</v>
       </c>
@@ -26950,7 +27008,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>3024</v>
       </c>
@@ -26985,7 +27043,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>3030</v>
       </c>
@@ -27020,7 +27078,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>3036</v>
       </c>
@@ -27055,7 +27113,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>3042</v>
       </c>
@@ -27090,7 +27148,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>3048</v>
       </c>
@@ -27125,503 +27183,503 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -5,12 +5,12 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpa\finalproject\uipath\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UEL\RPA\RPA_CreditCardApproval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E7C20-606A-4ACB-94A5-A511B80BD1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81546FF6-848F-4228-9709-E5FFAEEDC9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="768" yWindow="768" windowWidth="21192" windowHeight="10596" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,10 @@
     <x:t>cic_verification</x:t>
   </x:si>
   <x:si>
-    <x:t>decision_status</x:t>
+    <x:t>offer_limit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>status</x:t>
   </x:si>
   <x:si>
     <x:t>APP0001</x:t>
@@ -112,9 +115,6 @@
     <x:t>CUS001</x:t>
   </x:si>
   <x:si>
-    <x:t>033301007320</x:t>
-  </x:si>
-  <x:si>
     <x:t/>
   </x:si>
   <x:si>
@@ -133,7 +133,7 @@
     <x:t>0985632617</x:t>
   </x:si>
   <x:si>
-    <x:t>dangngocmai@gmail.com</x:t>
+    <x:t>khoaanhtran07@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>113/1 Lý Thường Kiệt, Quận 2, Việt Nam</x:t>
@@ -148,9 +148,6 @@
     <x:t>Online</x:t>
   </x:si>
   <x:si>
-    <x:t>8000000</x:t>
-  </x:si>
-  <x:si>
     <x:t>20000000</x:t>
   </x:si>
   <x:si>
@@ -196,9 +193,6 @@
     <x:t>Branch</x:t>
   </x:si>
   <x:si>
-    <x:t>12000000</x:t>
-  </x:si>
-  <x:si>
     <x:t>30000000</x:t>
   </x:si>
   <x:si>
@@ -206,6 +200,276 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> | ID mismatch:  vs IMMIHELP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>n/a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoàng Thanh Hiếu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khoata21411c@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138 Tran Hung Dao, Hoan Kiem, Da Nang, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bùi Quang Trang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105 Nguyen Hue, Quan 3, Hai Phong, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngô Quang Thịnh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/10/1996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khoa.tran@pizza4ps.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124 Nguyen Hue, Quan 7, Can Tho, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lý Anh Lan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/12/1996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160 Nguyen Trai, Hai Chau, Da Nang, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lý Đức An</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160 Ly Thuong Kiet, Dong Da, TP Ho Chi Minh, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ll680077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dana Mann</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/10/1966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+91 5686348183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trananhkhoa373@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4324 Jim Trace Apt. 582, Port Jonathon, WA 84373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoàng Anh Yến</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/11/1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192 Le Loi, Quan 7, Ha Noi, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lê Thị Vy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/03/1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191 Nguyen Hue, Quan 7, Ha Noi, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trần Hữu Linh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/03/1974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55 Nguyen Trai, Dong Da, Hai Phong, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đặng Quang Quân</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107 Nguyen Trai, Quan 7, Ha Noi, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lý Thị Dũng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/03/2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 Tran Hung Dao, Hoan Kiem, TP Ho Chi Minh, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lý Đức Mai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/03/1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91 Pham Van Dong, Hai Chau, TP Ho Chi Minh, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngô Thị Châu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngothichau@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184 Tran Hung Dao, Dong Da, Da Nang, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngô Hữu Khánh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/06/2004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngohuukhanh@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 Nguyen Trai, Quan 7, TP Ho Chi Minh, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phạm Văn Dũng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phamvandung@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92 Pham Van Dong, Hai Chau, TP Ho Chi Minh, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hồ Hữu Mai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hohuumai@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36 Nguyen Trai, Dong Da, Da Nang, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phan Đức Mai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/02/1975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phanducmai@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61 Pham Van Dong, Hoan Kiem, Can Tho, Viet Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lY554237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Franklin Winters</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+81 4054916912</x:t>
+  </x:si>
+  <x:si>
+    <x:t>franklinwinters@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23038 Jones Parkways Suite 348, North Lauraville, MP 07746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ax962288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christopher Reynolds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/12/1971</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+91 5245116481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>christopherreynolds@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unit 7594 Box 9549, DPO AE 05684</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APP0022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoàng Anh Giang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/09/2004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82 Nguyen Hue, Quan 1, Hai Phong, Viet Nam</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -215,7 +479,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4" x14ac:knownFonts="1">
+  <x:fonts count="7" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -237,6 +501,28 @@
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -252,7 +538,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="3">
+  <x:borders count="4">
     <x:border>
       <x:left/>
       <x:right/>
@@ -290,17 +576,39 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="top"/>
@@ -311,8 +619,19 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="top"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="top"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,10 +847,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Z476"/>
+  <x:dimension ref="A1:AA476"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <x:selection activeCell="N2" sqref="N2 2:7"/>
+    <x:sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <x:selection activeCell="Z4" sqref="Z4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="15.554688" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -545,7 +864,7 @@
     <x:col min="16" max="16384" width="15.554688" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -621,19 +940,22 @@
       <x:c r="Y1" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Z1" s="2" t="s">
+      <x:c r="Z1" s="6" t="s">
         <x:v>25</x:v>
       </x:c>
+      <x:c r="AA1" s="7" t="s">
+        <x:v>26</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
         <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="2">
+        <x:v>33301007320</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
         <x:v>29</x:v>
@@ -656,7 +978,7 @@
       <x:c r="J2" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="K2" s="2" t="s">
+      <x:c r="K2" s="5" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
@@ -671,140 +993,1786 @@
       <x:c r="O2" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="P2" s="2" t="s">
+      <x:c r="P2" s="2">
+        <x:v>8000000</x:v>
+      </x:c>
+      <x:c r="Q2" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="Q2" s="2" t="s">
+      <x:c r="R2" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="R2" s="2" t="s">
+      <x:c r="S2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U2" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="S2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="T2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="U2" s="2" t="s">
+      <x:c r="V2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="V2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="W2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="X2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Y2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Z2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="B3" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="C3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
+      <x:c r="E3" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
+      <x:c r="F3" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="F3" s="2" t="s">
+      <x:c r="G3" s="2" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="J3" s="2" t="s">
+      <x:c r="K3" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="K3" s="2" t="s">
+      <x:c r="L3" s="2" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="N3" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O3" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="O3" s="2" t="s">
+      <x:c r="P3" s="2">
+        <x:v>13199334</x:v>
+      </x:c>
+      <x:c r="Q3" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="P3" s="2" t="s">
+      <x:c r="R3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U3" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="Q3" s="2" t="s">
+      <x:c r="V3" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="R3" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="S3" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="T3" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="U3" s="2" t="s">
+      <x:c r="W3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="V3" s="2" t="s">
+      <x:c r="B4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C4" s="2">
+        <x:v>89854219200</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="W3" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="X3" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Y3" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Z3" s="2" t="s">
+      <x:c r="F4" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G4" s="4">
+        <x:v>30502</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I4" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J4" s="2">
+        <x:v>836426617</x:v>
+      </x:c>
+      <x:c r="K4" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L4" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="M4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P4" s="2">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA4" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <x:row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <x:row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C5" s="2">
+        <x:v>39667525772</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G5" s="4">
+        <x:v>28075</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J5" s="2">
+        <x:v>878061855</x:v>
+      </x:c>
+      <x:c r="K5" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="M5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P5" s="2">
+        <x:v>37000000</x:v>
+      </x:c>
+      <x:c r="Q5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C6" s="2">
+        <x:v>34153706524</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I6" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J6" s="2">
+        <x:v>761209301</x:v>
+      </x:c>
+      <x:c r="K6" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="L6" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="M6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P6" s="2">
+        <x:v>45000000</x:v>
+      </x:c>
+      <x:c r="Q6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA6" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C7" s="2">
+        <x:v>15446733779</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I7" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J7" s="2">
+        <x:v>929771395</x:v>
+      </x:c>
+      <x:c r="K7" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L7" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="M7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P7" s="2">
+        <x:v>15000000</x:v>
+      </x:c>
+      <x:c r="Q7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C8" s="2">
+        <x:v>40261367986</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G8" s="4">
+        <x:v>33763</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I8" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J8" s="2">
+        <x:v>787466707</x:v>
+      </x:c>
+      <x:c r="K8" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L8" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P8" s="2">
+        <x:v>7407713</x:v>
+      </x:c>
+      <x:c r="Q8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA8" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H9" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I9" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="J9" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="K9" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="L9" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="M9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P9" s="2">
+        <x:v>38000000</x:v>
+      </x:c>
+      <x:c r="Q9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2">
+        <x:v>12646406653</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I10" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J10" s="2">
+        <x:v>847834130</x:v>
+      </x:c>
+      <x:c r="K10" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="L10" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="M10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P10" s="2">
+        <x:v>13000000</x:v>
+      </x:c>
+      <x:c r="Q10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C11" s="2">
+        <x:v>64845344238</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H11" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J11" s="2">
+        <x:v>779971788</x:v>
+      </x:c>
+      <x:c r="K11" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L11" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="M11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P11" s="2">
+        <x:v>23275028</x:v>
+      </x:c>
+      <x:c r="Q11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C12" s="2">
+        <x:v>51345661305</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G12" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H12" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J12" s="2">
+        <x:v>790676752</x:v>
+      </x:c>
+      <x:c r="K12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L12" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="M12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P12" s="2">
+        <x:v>48000000</x:v>
+      </x:c>
+      <x:c r="Q12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C13" s="2">
+        <x:v>37066501525</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="G13" s="4">
+        <x:v>36502</x:v>
+      </x:c>
+      <x:c r="H13" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I13" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J13" s="2">
+        <x:v>986380163</x:v>
+      </x:c>
+      <x:c r="K13" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L13" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="M13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P13" s="2">
+        <x:v>11000000</x:v>
+      </x:c>
+      <x:c r="Q13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C14" s="2">
+        <x:v>27892219410</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G14" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H14" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I14" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J14" s="2">
+        <x:v>890571743</x:v>
+      </x:c>
+      <x:c r="K14" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="L14" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="M14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P14" s="2">
+        <x:v>49000000</x:v>
+      </x:c>
+      <x:c r="Q14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C15" s="2">
+        <x:v>84738508014</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G15" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H15" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I15" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J15" s="2">
+        <x:v>862070786</x:v>
+      </x:c>
+      <x:c r="K15" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L15" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="M15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P15" s="2">
+        <x:v>39000000</x:v>
+      </x:c>
+      <x:c r="Q15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA15" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C16" s="2">
+        <x:v>8782117608</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E16" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G16" s="4">
+        <x:v>35590</x:v>
+      </x:c>
+      <x:c r="H16" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I16" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J16" s="2">
+        <x:v>828800934</x:v>
+      </x:c>
+      <x:c r="K16" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="L16" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="M16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P16" s="2">
+        <x:v>13405339</x:v>
+      </x:c>
+      <x:c r="Q16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA16" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C17" s="2">
+        <x:v>48355679594</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="G17" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H17" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I17" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J17" s="2">
+        <x:v>870434715</x:v>
+      </x:c>
+      <x:c r="K17" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="L17" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="M17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P17" s="2">
+        <x:v>17370615</x:v>
+      </x:c>
+      <x:c r="Q17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C18" s="2">
+        <x:v>82932002556</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="G18" s="4">
+        <x:v>32514</x:v>
+      </x:c>
+      <x:c r="H18" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I18" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J18" s="2">
+        <x:v>897644697</x:v>
+      </x:c>
+      <x:c r="K18" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="L18" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="M18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P18" s="2">
+        <x:v>45000000</x:v>
+      </x:c>
+      <x:c r="Q18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA18" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C19" s="2">
+        <x:v>47037347674</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="G19" s="4">
+        <x:v>32761</x:v>
+      </x:c>
+      <x:c r="H19" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I19" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J19" s="2">
+        <x:v>764127079</x:v>
+      </x:c>
+      <x:c r="K19" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="L19" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="M19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P19" s="2">
+        <x:v>30000000</x:v>
+      </x:c>
+      <x:c r="Q19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA19" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C20" s="2">
+        <x:v>96893291228</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G20" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="H20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I20" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J20" s="2">
+        <x:v>839733321</x:v>
+      </x:c>
+      <x:c r="K20" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="L20" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="M20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P20" s="2">
+        <x:v>51082571</x:v>
+      </x:c>
+      <x:c r="Q20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA20" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E21" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G21" s="4">
+        <x:v>34671</x:v>
+      </x:c>
+      <x:c r="H21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I21" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="J21" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="K21" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="L21" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="M21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P21" s="2">
+        <x:v>20000000</x:v>
+      </x:c>
+      <x:c r="Q21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA21" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E22" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="G22" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H22" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I22" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="J22" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="K22" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="L22" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="M22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P22" s="2">
+        <x:v>6000000</x:v>
+      </x:c>
+      <x:c r="Q22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA22" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C23" s="2">
+        <x:v>37083944036</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E23" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G23" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="H23" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I23" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J23" s="2">
+        <x:v>952167725</x:v>
+      </x:c>
+      <x:c r="K23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L23" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="M23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P23" s="2">
+        <x:v>33534298</x:v>
+      </x:c>
+      <x:c r="Q23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="U23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="W23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Y23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="Z23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AA23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
     <x:row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <x:row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <x:row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1259,9 +3227,20 @@
     <x:row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <x:row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="K2" r:id="rId11"/>
+    <x:hyperlink ref="K4" r:id="rId12"/>
+    <x:hyperlink ref="K6" r:id="rId13"/>
+    <x:hyperlink ref="K7" r:id="rId14"/>
+    <x:hyperlink ref="K8" r:id="rId15"/>
+    <x:hyperlink ref="K9" r:id="rId16"/>
+    <x:hyperlink ref="K10" r:id="rId17"/>
+    <x:hyperlink ref="K11" r:id="rId18"/>
+    <x:hyperlink ref="K14" r:id="rId19"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId10"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -1269,8 +1269,8 @@
     <x:row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="K2" r:id="rId9"/>
-    <x:hyperlink ref="K3" r:id="rId10"/>
+    <x:hyperlink ref="K2" r:id="rId11"/>
+    <x:hyperlink ref="K3" r:id="rId12"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UEL\RPA\RPA_CreditCardApproval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976AEC8B-DE5E-4FA8-A690-E9146E62BD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5358DF-992B-4EC9-AC9B-6A24420C2C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -103,28 +103,64 @@
     <x:t>cic_verification</x:t>
   </x:si>
   <x:si>
+    <x:t>decision_status</x:t>
+  </x:si>
+  <x:si>
     <x:t>offer_limit</x:t>
   </x:si>
   <x:si>
     <x:t>status</x:t>
   </x:si>
   <x:si>
+    <x:t>APP0001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUS001</x:t>
+  </x:si>
+  <x:si>
     <x:t/>
   </x:si>
   <x:si>
+    <x:t>Đặng Ngọc Mai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/01/2001</x:t>
+  </x:si>
+  <x:si>
     <x:t>Female</x:t>
   </x:si>
   <x:si>
     <x:t>Vietnam</x:t>
   </x:si>
   <x:si>
-    <x:t>khoaanhtran07@gmail.com</x:t>
+    <x:t>0985632617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>camtulearning@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113/1 Lý Thường Kiệt, Quận 2, Việt Nam</x:t>
   </x:si>
   <x:si>
     <x:t>Full-time</x:t>
   </x:si>
   <x:si>
-    <x:t>No email</x:t>
+    <x:t>Classic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Online</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/01/2026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PASS</x:t>
   </x:si>
   <x:si>
     <x:t>APP0002</x:t>
@@ -151,9 +187,6 @@
     <x:t>+91 9876543210</x:t>
   </x:si>
   <x:si>
-    <x:t>Dugula@gmail.com</x:t>
-  </x:si>
-  <x:si>
     <x:t>India</x:t>
   </x:si>
   <x:si>
@@ -163,6 +196,9 @@
     <x:t>Branch</x:t>
   </x:si>
   <x:si>
+    <x:t>12000000</x:t>
+  </x:si>
+  <x:si>
     <x:t>30000000</x:t>
   </x:si>
   <x:si>
@@ -184,7 +220,7 @@
     <x:t>Male</x:t>
   </x:si>
   <x:si>
-    <x:t>khoata21411c@st.uel.edu.vn</x:t>
+    <x:t>hoangthanhhieu@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>138 Tran Hung Dao, Hoan Kiem, Da Nang, Viet Nam</x:t>
@@ -196,6 +232,9 @@
     <x:t>Bùi Quang Trang</x:t>
   </x:si>
   <x:si>
+    <x:t>buiquangtrang@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>105 Nguyen Hue, Quan 3, Hai Phong, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -208,7 +247,7 @@
     <x:t>18/10/1996</x:t>
   </x:si>
   <x:si>
-    <x:t>khoa.tran@pizza4ps.com</x:t>
+    <x:t>ngoquangthinh@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>124 Nguyen Hue, Quan 7, Can Tho, Viet Nam</x:t>
@@ -223,6 +262,9 @@
     <x:t>29/12/1996</x:t>
   </x:si>
   <x:si>
+    <x:t>lyanhlan@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>160 Nguyen Trai, Hai Chau, Da Nang, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -232,6 +274,9 @@
     <x:t>Lý Đức An</x:t>
   </x:si>
   <x:si>
+    <x:t>lyducan@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>160 Ly Thuong Kiet, Dong Da, TP Ho Chi Minh, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -250,7 +295,7 @@
     <x:t>+91 5686348183</x:t>
   </x:si>
   <x:si>
-    <x:t>trananhkhoa373@gmail.com</x:t>
+    <x:t>danamann@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>4324 Jim Trace Apt. 582, Port Jonathon, WA 84373</x:t>
@@ -265,6 +310,9 @@
     <x:t>15/11/1999</x:t>
   </x:si>
   <x:si>
+    <x:t>hoanganhyen@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>192 Le Loi, Quan 7, Ha Noi, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -277,6 +325,9 @@
     <x:t>28/03/1999</x:t>
   </x:si>
   <x:si>
+    <x:t>lethivy@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>191 Nguyen Hue, Quan 7, Ha Noi, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -289,6 +340,9 @@
     <x:t>20/03/1974</x:t>
   </x:si>
   <x:si>
+    <x:t>tranhuulinh@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>55 Nguyen Trai, Dong Da, Hai Phong, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -298,6 +352,9 @@
     <x:t>Đặng Quang Quân</x:t>
   </x:si>
   <x:si>
+    <x:t>dangquangquan@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>107 Nguyen Trai, Quan 7, Ha Noi, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -310,6 +367,9 @@
     <x:t>19/03/2000</x:t>
   </x:si>
   <x:si>
+    <x:t>lythidung@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>2 Tran Hung Dao, Hoan Kiem, TP Ho Chi Minh, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -322,6 +382,9 @@
     <x:t>27/03/1999</x:t>
   </x:si>
   <x:si>
+    <x:t>lyducmai@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>91 Pham Van Dong, Hai Chau, TP Ho Chi Minh, Viet Nam</x:t>
   </x:si>
   <x:si>
@@ -437,6 +500,9 @@
   </x:si>
   <x:si>
     <x:t>18/09/2004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hoanganhgiang@gmail.com</x:t>
   </x:si>
   <x:si>
     <x:t>82 Nguyen Hue, Quan 1, Hai Phong, Viet Nam</x:t>
@@ -449,7 +515,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="7" x14ac:knownFonts="1">
+  <x:fonts count="5" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -475,22 +541,7 @@
       <x:sz val="11"/>
       <x:color theme="10"/>
       <x:name val="Calibri"/>
-      <x:family val="2"/>
       <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -508,7 +559,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="3">
     <x:border>
       <x:left/>
       <x:right/>
@@ -546,29 +597,14 @@
       </x:bottom>
       <x:diagonal/>
     </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -578,7 +614,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="top"/>
@@ -589,16 +625,10 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="top"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="top"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="top"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="top"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="top"/>
     </x:xf>
   </x:cellXfs>
@@ -819,10 +849,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AA476"/>
+  <x:dimension ref="A1:AB476"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <x:selection activeCell="AC3" sqref="AC3"/>
+    <x:sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <x:selection activeCell="K10" sqref="K10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="15.554688" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -836,7 +866,7 @@
     <x:col min="16" max="16384" width="15.554688" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -912,1837 +942,1906 @@
       <x:c r="Y1" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Z1" s="7" t="s">
+      <x:c r="Z1" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="AA1" s="6" t="s">
+      <x:c r="AA1" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
+      <x:c r="AB1" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C2" s="2">
-        <x:v>37083944036</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C2" s="0">
+        <x:v>33301007320</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I2" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J2" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K2" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L2" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M2" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N2" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O2" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="P2" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="Q2" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="R2" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="S2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="T2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="U2" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="V2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="W2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="X2" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="Y2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Z2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AA2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="F2" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="G2" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="s">
+      <x:c r="G3" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="I2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="J2" s="2">
-        <x:v>952167725</x:v>
-      </x:c>
-      <x:c r="K2" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L2" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="M2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="N2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P2" s="2">
-        <x:v>33534298</x:v>
-      </x:c>
-      <x:c r="Q2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="R2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="S2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="T2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="U2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="V2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="W2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="X2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Y2" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Z2" s="2">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA2" s="2" t="s">
-        <x:v>32</x:v>
+      <x:c r="J3" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="K3" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N3" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="O3" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="P3" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Q3" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="R3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="S3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="T3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="U3" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="V3" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="W3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="X3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Y3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Z3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AA3" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB3" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L3" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="M3" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N3" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="O3" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="P3" s="2">
-        <x:v>13199334</x:v>
-      </x:c>
-      <x:c r="Q3" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="R3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="S3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="T3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="U3" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="V3" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="W3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="X3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Y3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Z3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="AA3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>89854219200</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G4" s="4">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G4" s="5">
         <x:v>30502</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J4" s="2">
         <x:v>836426617</x:v>
       </x:c>
-      <x:c r="K4" s="5" t="s">
-        <x:v>52</x:v>
+      <x:c r="K4" s="2" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P4" s="2">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB4" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>39667525772</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G5" s="4">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G5" s="5">
         <x:v>28075</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J5" s="2">
         <x:v>878061855</x:v>
       </x:c>
-      <x:c r="K5" s="5" t="s">
-        <x:v>27</x:v>
+      <x:c r="K5" s="2" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P5" s="2">
         <x:v>37000000</x:v>
       </x:c>
       <x:c r="Q5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB5" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>34153706524</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G6" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H6" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I6" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J6" s="2">
         <x:v>761209301</x:v>
       </x:c>
-      <x:c r="K6" s="5" t="s">
-        <x:v>60</x:v>
+      <x:c r="K6" s="2" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L6" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P6" s="2">
         <x:v>45000000</x:v>
       </x:c>
       <x:c r="Q6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA6" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB6" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="2">
         <x:v>15446733779</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="G7" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H7" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="I7" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J7" s="2">
         <x:v>929771395</x:v>
       </x:c>
-      <x:c r="K7" s="5" t="s">
-        <x:v>30</x:v>
+      <x:c r="K7" s="2" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L7" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P7" s="2">
         <x:v>15000000</x:v>
       </x:c>
       <x:c r="Q7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA7" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB7" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>40261367986</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G8" s="4">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G8" s="5">
         <x:v>33763</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I8" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J8" s="2">
         <x:v>787466707</x:v>
       </x:c>
-      <x:c r="K8" s="5" t="s">
-        <x:v>52</x:v>
+      <x:c r="K8" s="2" t="s">
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L8" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P8" s="2">
         <x:v>7407713</x:v>
       </x:c>
       <x:c r="Q8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB8" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G9" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H9" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I9" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J9" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="K9" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K9" s="2" t="s">
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L9" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="M9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P9" s="2">
         <x:v>38000000</x:v>
       </x:c>
       <x:c r="Q9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB9" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C10" s="2">
         <x:v>12646406653</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G10" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H10" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J10" s="2">
         <x:v>847834130</x:v>
       </x:c>
-      <x:c r="K10" s="5" t="s">
-        <x:v>60</x:v>
+      <x:c r="K10" s="2" t="s">
+        <x:v>94</x:v>
       </x:c>
       <x:c r="L10" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P10" s="2">
         <x:v>13000000</x:v>
       </x:c>
       <x:c r="Q10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB10" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="2">
         <x:v>64845344238</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G11" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H11" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I11" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J11" s="2">
         <x:v>779971788</x:v>
       </x:c>
-      <x:c r="K11" s="5" t="s">
-        <x:v>30</x:v>
+      <x:c r="K11" s="2" t="s">
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L11" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P11" s="2">
         <x:v>23275028</x:v>
       </x:c>
       <x:c r="Q11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB11" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="2">
         <x:v>51345661305</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G12" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H12" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I12" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J12" s="2">
         <x:v>790676752</x:v>
       </x:c>
       <x:c r="K12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L12" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P12" s="2">
         <x:v>48000000</x:v>
       </x:c>
       <x:c r="Q12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB12" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="2">
         <x:v>37066501525</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G13" s="4">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G13" s="5">
         <x:v>36502</x:v>
       </x:c>
       <x:c r="H13" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I13" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J13" s="2">
         <x:v>986380163</x:v>
       </x:c>
-      <x:c r="K13" s="5" t="s">
-        <x:v>52</x:v>
+      <x:c r="K13" s="2" t="s">
+        <x:v>108</x:v>
       </x:c>
       <x:c r="L13" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P13" s="2">
         <x:v>11000000</x:v>
       </x:c>
       <x:c r="Q13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA13" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB13" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="2">
         <x:v>27892219410</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G14" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H14" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I14" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J14" s="2">
         <x:v>890571743</x:v>
       </x:c>
-      <x:c r="K14" s="5" t="s">
-        <x:v>74</x:v>
+      <x:c r="K14" s="2" t="s">
+        <x:v>113</x:v>
       </x:c>
       <x:c r="L14" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="M14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P14" s="2">
         <x:v>49000000</x:v>
       </x:c>
       <x:c r="Q14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA14" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB14" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="2">
         <x:v>84738508014</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G15" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H15" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I15" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J15" s="2">
         <x:v>862070786</x:v>
       </x:c>
-      <x:c r="K15" s="5" t="s">
-        <x:v>27</x:v>
+      <x:c r="K15" s="2" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="L15" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="M15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P15" s="2">
         <x:v>39000000</x:v>
       </x:c>
       <x:c r="Q15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA15" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB15" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C16" s="2">
         <x:v>8782117608</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G16" s="4">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G16" s="5">
         <x:v>35590</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J16" s="2">
         <x:v>828800934</x:v>
       </x:c>
       <x:c r="K16" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="L16" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="M16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P16" s="2">
         <x:v>13405339</x:v>
       </x:c>
       <x:c r="Q16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB16" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="17" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C17" s="2">
         <x:v>48355679594</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G17" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H17" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I17" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J17" s="2">
         <x:v>870434715</x:v>
       </x:c>
       <x:c r="K17" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="L17" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="M17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P17" s="2">
         <x:v>17370615</x:v>
       </x:c>
       <x:c r="Q17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB17" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="18" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A18" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C18" s="2">
         <x:v>82932002556</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="G18" s="4">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G18" s="5">
         <x:v>32514</x:v>
       </x:c>
       <x:c r="H18" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J18" s="2">
         <x:v>897644697</x:v>
       </x:c>
       <x:c r="K18" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="L18" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="M18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P18" s="2">
         <x:v>45000000</x:v>
       </x:c>
       <x:c r="Q18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA18" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB18" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="19" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A19" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C19" s="2">
         <x:v>47037347674</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="G19" s="4">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="G19" s="5">
         <x:v>32761</x:v>
       </x:c>
       <x:c r="H19" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I19" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J19" s="2">
         <x:v>764127079</x:v>
       </x:c>
       <x:c r="K19" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L19" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="M19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P19" s="2">
         <x:v>30000000</x:v>
       </x:c>
       <x:c r="Q19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA19" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB19" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="20" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A20" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="2">
         <x:v>96893291228</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G20" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H20" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I20" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J20" s="2">
         <x:v>839733321</x:v>
       </x:c>
       <x:c r="K20" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="L20" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="M20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P20" s="2">
         <x:v>51082571</x:v>
       </x:c>
       <x:c r="Q20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA20" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB20" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A21" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="G21" s="4">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G21" s="5">
         <x:v>34671</x:v>
       </x:c>
       <x:c r="H21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I21" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="I21" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="J21" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="K21" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="L21" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P21" s="2">
         <x:v>20000000</x:v>
       </x:c>
       <x:c r="Q21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB21" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="22" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A22" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E22" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G22" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I22" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="I22" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="J22" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="K22" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="L22" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="M22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P22" s="2">
         <x:v>6000000</x:v>
       </x:c>
       <x:c r="Q22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB22" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <x:row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A23" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C23" s="2">
         <x:v>37083944036</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E23" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G23" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H23" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I23" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J23" s="2">
         <x:v>952167725</x:v>
       </x:c>
       <x:c r="K23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="L23" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="M23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P23" s="2">
         <x:v>33534298</x:v>
       </x:c>
       <x:c r="Q23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="X23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Y23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Z23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="AA23" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB23" s="2" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3200,19 +3299,12 @@
     <x:row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="K2" r:id="rId20"/>
-    <x:hyperlink ref="K4" r:id="rId21"/>
-    <x:hyperlink ref="K6" r:id="rId22"/>
-    <x:hyperlink ref="K7" r:id="rId23"/>
-    <x:hyperlink ref="K8" r:id="rId24"/>
-    <x:hyperlink ref="K9" r:id="rId25"/>
-    <x:hyperlink ref="K10" r:id="rId26"/>
-    <x:hyperlink ref="K11" r:id="rId27"/>
-    <x:hyperlink ref="K14" r:id="rId28"/>
+    <x:hyperlink ref="K2" r:id="rId9"/>
+    <x:hyperlink ref="K3" r:id="rId10"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId10"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId3"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UEL\RPA\RPA_CreditCardApproval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6BEDE4-8015-4C2F-BC53-1958BD2D7ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177EA040-0A7B-484D-B679-00F577C4953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="30">
   <si>
     <t>application_id</t>
   </si>
@@ -111,100 +111,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>APP0001</t>
-  </si>
-  <si>
-    <t>CUS001</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>Đặng Ngọc Mai</t>
-  </si>
-  <si>
-    <t>23/01/2001</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>0985632617</t>
-  </si>
-  <si>
-    <t>camtulearning@gmail.com</t>
-  </si>
-  <si>
-    <t>113/1 Lý Thường Kiệt, Quận 2, Việt Nam</t>
-  </si>
-  <si>
-    <t>Full-time</t>
-  </si>
-  <si>
-    <t>Classic</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>8000000</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>23/01/2026</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>APP0002</t>
-  </si>
-  <si>
-    <t>CUS002</t>
-  </si>
-  <si>
-    <t>AI1441313</t>
-  </si>
-  <si>
-    <t>J8369854</t>
-  </si>
-  <si>
-    <t>RAMADUGULA</t>
-  </si>
-  <si>
-    <t>23/09/1959</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>+91 9876543210</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>12000000</t>
-  </si>
-  <si>
-    <t>30000000</t>
-  </si>
-  <si>
-    <t>REJECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> | ID mismatch:  vs IMMIHELP</t>
   </si>
   <si>
     <t>Approved</t>
@@ -543,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB476"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -646,1123 +553,974 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>33301007320</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C2"/>
+      <c r="G2"/>
+      <c r="K2" s="4"/>
       <c r="AA2" s="7">
         <v>6160000</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="D3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="K3" s="4"/>
       <c r="AA3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="5"/>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="5"/>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G8" s="5"/>
       <c r="M8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G13" s="5"/>
       <c r="M13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G16" s="5"/>
       <c r="M16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="7:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="7:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18" s="5"/>
       <c r="M18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="7:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="5"/>
       <c r="M19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="7:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="7:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G21" s="5"/>
       <c r="M21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="7:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="7:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="7:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2219,11 +1977,7 @@
     <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>